--- a/Pricess2.xlsx
+++ b/Pricess2.xlsx
@@ -22,7 +22,7 @@
   <numFmts count="1">
     <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="47">
     <font>
       <name val="Arial Cyr"/>
       <color rgb="FF000000"/>
@@ -155,12 +155,6 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
       <color indexed="8"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-      <color indexed="63"/>
       <sz val="9"/>
     </font>
     <font>
@@ -346,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -647,19 +641,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -705,11 +686,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="46" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="47" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="45" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="46" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -765,7 +746,7 @@
     </xf>
     <xf borderId="9" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -773,49 +754,47 @@
     </xf>
     <xf borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="2" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="2" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="2" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="2" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="2" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="2" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="2" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="11" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="15" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="33" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="32" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="34" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="33" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="46" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="45" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
@@ -825,10 +804,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="21" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="2" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -849,7 +828,7 @@
     </xf>
     <xf borderId="10" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="21" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -866,7 +845,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="2" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -890,7 +869,7 @@
     <xf applyAlignment="1" borderId="8" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="2" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -905,11 +884,11 @@
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="40" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf borderId="5" fillId="2" fontId="39" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -929,7 +908,7 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="21" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="40" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -968,10 +947,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -980,8 +959,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
@@ -994,12 +973,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1014,7 +993,7 @@
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1032,33 +1011,32 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="6" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="21" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="22" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1066,8 +1044,7 @@
     </xf>
     <xf borderId="22" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="7" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="22" fillId="2" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="2" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1076,44 +1053,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="8" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="27" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="26" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="27" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="27" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="27" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="26" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="26" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="20" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="21" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="27" fillId="0" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="29" fillId="0" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="30" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="2" fontId="43" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="2" fontId="42" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="33" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="34" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="33" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1489,95 +1461,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.28515625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" max="5" min="1" width="2.5703125"/>
-    <col customWidth="1" max="6" min="6" style="141" width="7.7109375"/>
-    <col customWidth="1" max="7" min="7" style="141" width="8.28515625"/>
-    <col customWidth="1" max="8" min="8" style="141" width="52.140625"/>
-    <col customWidth="1" max="9" min="9" style="134" width="8.28515625"/>
-    <col customWidth="1" max="10" min="10" style="141" width="20.28515625"/>
-    <col customWidth="1" max="11" min="11" style="154" width="23.140625"/>
-    <col customWidth="1" max="12" min="12" style="143" width="15.42578125"/>
-    <col customWidth="1" max="13" min="13" style="141" width="23.28515625"/>
-    <col customWidth="1" hidden="1" max="14" min="14" style="118" width="1.140625"/>
-    <col customWidth="1" max="15" min="15" style="141" width="4.7109375"/>
+    <col customWidth="1" max="6" min="6" style="139" width="7.7109375"/>
+    <col customWidth="1" max="7" min="7" style="139" width="8.28515625"/>
+    <col customWidth="1" max="8" min="8" style="139" width="52.140625"/>
+    <col customWidth="1" max="9" min="9" style="132" width="8.28515625"/>
+    <col customWidth="1" max="10" min="10" style="139" width="20.28515625"/>
+    <col customWidth="1" max="11" min="11" style="152" width="23.140625"/>
+    <col customWidth="1" max="12" min="12" style="141" width="15.42578125"/>
+    <col customWidth="1" max="13" min="13" style="139" width="23.28515625"/>
+    <col customWidth="1" hidden="1" max="14" min="14" style="116" width="1.140625"/>
+    <col customWidth="1" max="15" min="15" style="139" width="4.7109375"/>
     <col customWidth="1" max="16" min="16" style="12" width="13.28515625"/>
-    <col customWidth="1" max="17" min="17" style="141" width="8.85546875"/>
+    <col customWidth="1" max="17" min="17" style="139" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="140">
-      <c r="F1" s="141" t="n"/>
-      <c r="G1" s="141" t="n"/>
-      <c r="H1" s="141" t="n"/>
-      <c r="I1" s="142" t="n"/>
-      <c r="J1" s="141" t="n"/>
-      <c r="K1" s="154" t="n"/>
-      <c r="L1" s="143" t="n"/>
-      <c r="M1" s="141" t="n"/>
-      <c r="N1" s="141" t="n"/>
-      <c r="O1" s="141" t="n"/>
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="138">
+      <c r="F1" s="139" t="n"/>
+      <c r="G1" s="139" t="n"/>
+      <c r="H1" s="139" t="n"/>
+      <c r="I1" s="140" t="n"/>
+      <c r="J1" s="139" t="n"/>
+      <c r="K1" s="152" t="n"/>
+      <c r="L1" s="141" t="n"/>
+      <c r="M1" s="139" t="n"/>
+      <c r="N1" s="139" t="n"/>
+      <c r="O1" s="139" t="n"/>
       <c r="P1" s="12" t="n"/>
-      <c r="Q1" s="141" t="n"/>
+      <c r="Q1" s="139" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="2">
-      <c r="A2" s="66" t="n"/>
+      <c r="A2" s="64" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="20.25" r="3">
-      <c r="A3" s="66" t="n"/>
+      <c r="A3" s="64" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="20.25" r="4">
-      <c r="A4" s="66" t="n"/>
-      <c r="E4" s="140" t="n"/>
-      <c r="I4" s="142" t="n"/>
-      <c r="L4" s="92" t="n"/>
-      <c r="N4" s="141" t="n"/>
-      <c r="P4" s="69" t="n"/>
+      <c r="A4" s="64" t="n"/>
+      <c r="E4" s="138" t="n"/>
+      <c r="I4" s="140" t="n"/>
+      <c r="L4" s="90" t="n"/>
+      <c r="N4" s="139" t="n"/>
+      <c r="P4" s="67" t="n"/>
       <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="123" t="n"/>
+      <c r="R4" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="105.75" r="5">
-      <c r="A5" s="66" t="n"/>
-      <c r="F5" s="88" t="inlineStr">
+      <c r="A5" s="64" t="n"/>
+      <c r="F5" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Товариство з обмеженою відповідальністью  </t>
         </is>
       </c>
-      <c r="I5" s="142" t="n"/>
-      <c r="O5" s="86" t="inlineStr">
+      <c r="I5" s="140" t="n"/>
+      <c r="O5" s="84" t="inlineStr">
         <is>
           <t>"Ларус"</t>
         </is>
       </c>
-      <c r="P5" s="69" t="n"/>
+      <c r="P5" s="67" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="42" r="6">
-      <c r="A6" s="66" t="n"/>
+      <c r="A6" s="64" t="n"/>
       <c r="F6" s="19" t="n"/>
       <c r="G6" s="20" t="n"/>
       <c r="H6" s="20" t="n"/>
-      <c r="I6" s="152" t="inlineStr">
+      <c r="I6" s="150" t="inlineStr">
         <is>
           <t xml:space="preserve">Ціни дійсні на </t>
         </is>
       </c>
       <c r="J6" s="20" t="n"/>
-      <c r="K6" s="155" t="n">
+      <c r="K6" s="153" t="n">
         <v>45050</v>
       </c>
-      <c r="L6" s="103" t="n"/>
+      <c r="L6" s="101" t="n"/>
       <c r="M6" s="20" t="n"/>
       <c r="N6" s="20" t="n"/>
       <c r="O6" s="20" t="n"/>
@@ -1586,30 +1553,30 @@
       <c r="R6" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="32.25" r="7">
-      <c r="A7" s="66" t="n"/>
+      <c r="A7" s="64" t="n"/>
       <c r="F7" s="17" t="n"/>
-      <c r="G7" s="93" t="n"/>
-      <c r="H7" s="93" t="n"/>
-      <c r="I7" s="142" t="n"/>
-      <c r="J7" s="154" t="n"/>
-      <c r="K7" s="156" t="n"/>
-      <c r="L7" s="92" t="n"/>
-      <c r="N7" s="141" t="n"/>
-      <c r="P7" s="69" t="n"/>
+      <c r="G7" s="91" t="n"/>
+      <c r="H7" s="91" t="n"/>
+      <c r="I7" s="140" t="n"/>
+      <c r="J7" s="152" t="n"/>
+      <c r="K7" s="154" t="n"/>
+      <c r="L7" s="90" t="n"/>
+      <c r="N7" s="139" t="n"/>
+      <c r="P7" s="67" t="n"/>
       <c r="R7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="8">
-      <c r="A8" s="66" t="n"/>
+      <c r="A8" s="64" t="n"/>
       <c r="F8" s="8" t="n"/>
-      <c r="H8" s="142" t="inlineStr">
+      <c r="H8" s="140" t="inlineStr">
         <is>
           <t xml:space="preserve"> e-mail: all@larus.in.ua</t>
         </is>
       </c>
-      <c r="I8" s="121" t="n"/>
+      <c r="I8" s="119" t="n"/>
       <c r="J8" s="10" t="n"/>
       <c r="K8" s="10" t="n"/>
-      <c r="L8" s="96" t="inlineStr">
+      <c r="L8" s="94" t="inlineStr">
         <is>
           <t xml:space="preserve">          02002 Україна, м. Київ</t>
         </is>
@@ -1623,9 +1590,9 @@
       <c r="S8" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="9">
-      <c r="A9" s="66" t="n"/>
+      <c r="A9" s="64" t="n"/>
       <c r="F9" s="24" t="n"/>
-      <c r="G9" s="95" t="inlineStr">
+      <c r="G9" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve">  тел.   (044) 501 04 50 </t>
         </is>
@@ -1634,7 +1601,7 @@
       <c r="I9" s="25" t="n"/>
       <c r="J9" s="26" t="n"/>
       <c r="K9" s="26" t="n"/>
-      <c r="L9" s="97" t="inlineStr">
+      <c r="L9" s="95" t="inlineStr">
         <is>
           <t xml:space="preserve">    вул. Є. Сверстюка, 19, оф. 902</t>
         </is>
@@ -1647,132 +1614,132 @@
       <c r="S9" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="10">
-      <c r="A10" s="66" t="n"/>
-      <c r="G10" s="70" t="n"/>
-      <c r="H10" s="71" t="n"/>
-      <c r="I10" s="71" t="n"/>
-      <c r="J10" s="154" t="n"/>
-      <c r="L10" s="134" t="n"/>
-      <c r="N10" s="141" t="n"/>
-      <c r="P10" s="69" t="n"/>
+      <c r="A10" s="64" t="n"/>
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="69" t="n"/>
+      <c r="I10" s="69" t="n"/>
+      <c r="J10" s="152" t="n"/>
+      <c r="L10" s="132" t="n"/>
+      <c r="N10" s="139" t="n"/>
+      <c r="P10" s="67" t="n"/>
       <c r="S10" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="11">
-      <c r="A11" s="66" t="n"/>
-      <c r="F11" s="81" t="n"/>
-      <c r="G11" s="82" t="n"/>
-      <c r="H11" s="82" t="n"/>
-      <c r="I11" s="151" t="n"/>
-      <c r="J11" s="83" t="n"/>
-      <c r="K11" s="84" t="inlineStr">
+      <c r="A11" s="64" t="n"/>
+      <c r="F11" s="79" t="n"/>
+      <c r="G11" s="80" t="n"/>
+      <c r="H11" s="80" t="n"/>
+      <c r="I11" s="149" t="n"/>
+      <c r="J11" s="81" t="n"/>
+      <c r="K11" s="82" t="inlineStr">
         <is>
           <t>Склад: м.Київ, вул. Березняківська 29              Графік роботи складу: Пн-Пт з 9:00 по 14:00</t>
         </is>
       </c>
-      <c r="L11" s="98" t="n"/>
-      <c r="M11" s="82" t="n"/>
-      <c r="N11" s="82" t="n"/>
-      <c r="O11" s="82" t="n"/>
-      <c r="P11" s="72" t="n"/>
-      <c r="Q11" s="85" t="n"/>
+      <c r="L11" s="96" t="n"/>
+      <c r="M11" s="80" t="n"/>
+      <c r="N11" s="80" t="n"/>
+      <c r="O11" s="80" t="n"/>
+      <c r="P11" s="70" t="n"/>
+      <c r="Q11" s="83" t="n"/>
       <c r="S11" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="12">
-      <c r="A12" s="66" t="n"/>
-      <c r="G12" s="127" t="n"/>
-      <c r="H12" s="128" t="n"/>
-      <c r="I12" s="142" t="n"/>
-      <c r="J12" s="154" t="n"/>
-      <c r="L12" s="92" t="n"/>
-      <c r="N12" s="141" t="n"/>
-      <c r="P12" s="69" t="n"/>
+      <c r="A12" s="64" t="n"/>
+      <c r="G12" s="125" t="n"/>
+      <c r="H12" s="126" t="n"/>
+      <c r="I12" s="140" t="n"/>
+      <c r="J12" s="152" t="n"/>
+      <c r="L12" s="90" t="n"/>
+      <c r="N12" s="139" t="n"/>
+      <c r="P12" s="67" t="n"/>
       <c r="S12" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="13">
-      <c r="A13" s="66" t="n"/>
-      <c r="E13" s="110" t="n"/>
-      <c r="F13" s="76" t="n"/>
-      <c r="G13" s="145" t="n"/>
-      <c r="H13" s="117" t="n"/>
-      <c r="I13" s="122" t="n"/>
-      <c r="J13" s="78" t="inlineStr">
+      <c r="A13" s="64" t="n"/>
+      <c r="E13" s="108" t="n"/>
+      <c r="F13" s="74" t="n"/>
+      <c r="G13" s="143" t="n"/>
+      <c r="H13" s="115" t="n"/>
+      <c r="I13" s="120" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">      Какао порошок в герметичних мішка по 25 кг</t>
         </is>
       </c>
-      <c r="K13" s="78" t="n"/>
-      <c r="L13" s="99" t="n"/>
-      <c r="M13" s="78" t="n"/>
-      <c r="N13" s="77" t="n"/>
-      <c r="O13" s="77" t="n"/>
-      <c r="P13" s="89" t="n"/>
-      <c r="Q13" s="79" t="n"/>
+      <c r="K13" s="76" t="n"/>
+      <c r="L13" s="97" t="n"/>
+      <c r="M13" s="76" t="n"/>
+      <c r="N13" s="75" t="n"/>
+      <c r="O13" s="75" t="n"/>
+      <c r="P13" s="87" t="n"/>
+      <c r="Q13" s="77" t="n"/>
       <c r="S13" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="14">
-      <c r="A14" s="66" t="n"/>
-      <c r="E14" s="110" t="n"/>
-      <c r="F14" s="139" t="n"/>
-      <c r="H14" s="118" t="inlineStr">
+      <c r="A14" s="64" t="n"/>
+      <c r="E14" s="108" t="n"/>
+      <c r="F14" s="137" t="n"/>
+      <c r="H14" s="116" t="inlineStr">
         <is>
           <t>Какао масло, какао терте, еквівалент какао масла в герметичних ящиках по 25 кг</t>
         </is>
       </c>
-      <c r="I14" s="118" t="n"/>
-      <c r="J14" s="154" t="n"/>
-      <c r="L14" s="100" t="n"/>
-      <c r="N14" s="141" t="n"/>
-      <c r="P14" s="69" t="n"/>
-      <c r="Q14" s="73" t="n"/>
+      <c r="I14" s="116" t="n"/>
+      <c r="J14" s="152" t="n"/>
+      <c r="L14" s="98" t="n"/>
+      <c r="N14" s="139" t="n"/>
+      <c r="P14" s="67" t="n"/>
+      <c r="Q14" s="71" t="n"/>
       <c r="S14" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="15">
-      <c r="A15" s="66" t="n"/>
+      <c r="A15" s="64" t="n"/>
       <c r="F15" s="11" t="n"/>
-      <c r="G15" s="145" t="n"/>
-      <c r="H15" s="116" t="inlineStr">
+      <c r="G15" s="143" t="n"/>
+      <c r="H15" s="114" t="inlineStr">
         <is>
           <t xml:space="preserve">          Лауриновий замінник какао масла в герметичних ящиках по 20 кг</t>
         </is>
       </c>
-      <c r="I15" s="116" t="n"/>
-      <c r="J15" s="117" t="n"/>
-      <c r="K15" s="117" t="n"/>
-      <c r="L15" s="101" t="n"/>
-      <c r="M15" s="117" t="n"/>
-      <c r="N15" s="145" t="n"/>
-      <c r="O15" s="145" t="n"/>
-      <c r="P15" s="90" t="n"/>
-      <c r="Q15" s="80" t="n"/>
+      <c r="I15" s="114" t="n"/>
+      <c r="J15" s="115" t="n"/>
+      <c r="K15" s="115" t="n"/>
+      <c r="L15" s="99" t="n"/>
+      <c r="M15" s="115" t="n"/>
+      <c r="N15" s="143" t="n"/>
+      <c r="O15" s="143" t="n"/>
+      <c r="P15" s="88" t="n"/>
+      <c r="Q15" s="78" t="n"/>
       <c r="S15" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="16">
-      <c r="A16" s="66" t="n"/>
-      <c r="F16" s="74" t="n"/>
-      <c r="G16" s="127" t="n"/>
-      <c r="H16" s="125" t="n"/>
-      <c r="I16" s="125" t="n"/>
-      <c r="J16" s="124" t="inlineStr">
+      <c r="A16" s="64" t="n"/>
+      <c r="F16" s="72" t="n"/>
+      <c r="G16" s="125" t="n"/>
+      <c r="H16" s="123" t="n"/>
+      <c r="I16" s="123" t="n"/>
+      <c r="J16" s="122" t="inlineStr">
         <is>
           <t xml:space="preserve">              Лецитин в металевих бочках по 200 кг</t>
         </is>
       </c>
-      <c r="K16" s="124" t="n"/>
-      <c r="L16" s="102" t="n"/>
-      <c r="M16" s="127" t="n"/>
-      <c r="N16" s="127" t="n"/>
-      <c r="O16" s="127" t="n"/>
-      <c r="P16" s="91" t="n"/>
-      <c r="Q16" s="75" t="n"/>
+      <c r="K16" s="122" t="n"/>
+      <c r="L16" s="100" t="n"/>
+      <c r="M16" s="125" t="n"/>
+      <c r="N16" s="125" t="n"/>
+      <c r="O16" s="125" t="n"/>
+      <c r="P16" s="89" t="n"/>
+      <c r="Q16" s="73" t="n"/>
       <c r="S16" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="17">
-      <c r="A17" s="66" t="n"/>
+      <c r="A17" s="64" t="n"/>
       <c r="S17" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="18">
-      <c r="A18" s="66" t="n"/>
-      <c r="H18" s="115" t="inlineStr">
+      <c r="A18" s="64" t="n"/>
+      <c r="H18" s="113" t="inlineStr">
         <is>
           <t>Актуальну ціну уточнюйте за телефоном 044 501 04 50 !!!!</t>
         </is>
@@ -1780,24 +1747,24 @@
       <c r="S18" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="19">
-      <c r="A19" s="66" t="n"/>
+      <c r="A19" s="64" t="n"/>
       <c r="F19" s="7" t="n"/>
-      <c r="I19" s="142" t="n"/>
+      <c r="I19" s="140" t="n"/>
       <c r="N19" s="6" t="n"/>
-      <c r="P19" s="69" t="n"/>
+      <c r="P19" s="67" t="n"/>
       <c r="S19" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="20">
-      <c r="I20" s="142" t="n"/>
-      <c r="L20" s="92" t="n"/>
-      <c r="M20" s="133" t="n"/>
-      <c r="N20" s="133" t="n"/>
-      <c r="O20" s="87" t="inlineStr">
+      <c r="I20" s="140" t="n"/>
+      <c r="L20" s="90" t="n"/>
+      <c r="M20" s="131" t="n"/>
+      <c r="N20" s="131" t="n"/>
+      <c r="O20" s="85" t="inlineStr">
         <is>
           <t>Ціна за 1 кг, з ПДВ</t>
         </is>
       </c>
-      <c r="P20" s="69" t="n"/>
+      <c r="P20" s="67" t="n"/>
       <c r="S20" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="21">
@@ -1806,20 +1773,20 @@
           <t>Найменування:</t>
         </is>
       </c>
-      <c r="G21" s="93" t="n"/>
-      <c r="H21" s="93" t="n"/>
-      <c r="I21" s="119" t="inlineStr">
+      <c r="G21" s="91" t="n"/>
+      <c r="H21" s="91" t="n"/>
+      <c r="I21" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve"> Назва:</t>
         </is>
       </c>
-      <c r="J21" s="93" t="n"/>
-      <c r="K21" s="153" t="inlineStr">
+      <c r="J21" s="91" t="n"/>
+      <c r="K21" s="151" t="inlineStr">
         <is>
           <t>Жирність:</t>
         </is>
       </c>
-      <c r="L21" s="93" t="inlineStr">
+      <c r="L21" s="91" t="inlineStr">
         <is>
           <t>Виробник:</t>
         </is>
@@ -1831,7 +1798,7 @@
       </c>
       <c r="N21" s="16" t="n"/>
       <c r="O21" s="16" t="n"/>
-      <c r="P21" s="84" t="n"/>
+      <c r="P21" s="82" t="n"/>
       <c r="Q21" s="18" t="inlineStr">
         <is>
           <t>UAH</t>
@@ -1839,383 +1806,383 @@
       </c>
       <c r="S21" s="5" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="22" s="111">
-      <c r="F22" s="132" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="27.75" r="22" s="109">
+      <c r="F22" s="130" t="inlineStr">
         <is>
           <t>Какао порошок натуральний</t>
         </is>
       </c>
-      <c r="G22" s="133" t="n"/>
-      <c r="H22" s="133" t="n"/>
-      <c r="I22" s="134" t="inlineStr">
+      <c r="G22" s="131" t="n"/>
+      <c r="H22" s="131" t="n"/>
+      <c r="I22" s="132" t="inlineStr">
         <is>
           <t>SN</t>
         </is>
       </c>
-      <c r="J22" s="133" t="n"/>
-      <c r="K22" s="154" t="inlineStr">
+      <c r="J22" s="131" t="n"/>
+      <c r="K22" s="152" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L22" s="135" t="inlineStr">
+      <c r="L22" s="133" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M22" s="141" t="inlineStr">
+      <c r="M22" s="139" t="inlineStr">
         <is>
           <t xml:space="preserve">Німеччина </t>
         </is>
       </c>
-      <c r="N22" s="141" t="n"/>
-      <c r="O22" s="141" t="n"/>
-      <c r="P22" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="137" t="inlineStr">
+      <c r="N22" s="139" t="n"/>
+      <c r="O22" s="139" t="n"/>
+      <c r="P22" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S22" s="112" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="23" s="111">
+      <c r="S22" s="110" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.75" r="23" s="109">
       <c r="F23" s="13" t="inlineStr">
         <is>
           <t>Какао порошок натуральний</t>
         </is>
       </c>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="120" t="inlineStr">
+      <c r="G23" s="106" t="n"/>
+      <c r="H23" s="106" t="n"/>
+      <c r="I23" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">JB-100  </t>
         </is>
       </c>
-      <c r="J23" s="108" t="n"/>
-      <c r="K23" s="117" t="inlineStr">
+      <c r="J23" s="106" t="n"/>
+      <c r="K23" s="115" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L23" s="94" t="inlineStr">
+      <c r="L23" s="92" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="M23" s="145" t="inlineStr">
+      <c r="M23" s="143" t="inlineStr">
         <is>
           <t>Малайзія/Індонезія</t>
         </is>
       </c>
-      <c r="N23" s="145" t="n"/>
-      <c r="O23" s="145" t="n"/>
-      <c r="P23" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="67" t="inlineStr">
+      <c r="N23" s="143" t="n"/>
+      <c r="O23" s="143" t="n"/>
+      <c r="P23" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S23" s="112" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="24" s="111">
-      <c r="F24" s="132" t="inlineStr">
+      <c r="S23" s="110" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.75" r="24" s="109">
+      <c r="F24" s="130" t="inlineStr">
         <is>
           <t>Какао порошок натуральний</t>
         </is>
       </c>
-      <c r="G24" s="133" t="n"/>
-      <c r="H24" s="133" t="n"/>
-      <c r="I24" s="134" t="inlineStr">
+      <c r="G24" s="131" t="n"/>
+      <c r="H24" s="131" t="n"/>
+      <c r="I24" s="132" t="inlineStr">
         <is>
           <t xml:space="preserve">N21N </t>
         </is>
       </c>
-      <c r="J24" s="133" t="n"/>
-      <c r="K24" s="154" t="inlineStr">
+      <c r="J24" s="131" t="n"/>
+      <c r="K24" s="152" t="inlineStr">
         <is>
           <t>20-22%</t>
         </is>
       </c>
-      <c r="L24" s="135" t="inlineStr">
+      <c r="L24" s="133" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M24" s="141" t="inlineStr">
+      <c r="M24" s="139" t="inlineStr">
         <is>
           <t>Нідерланди</t>
         </is>
       </c>
-      <c r="N24" s="141" t="n"/>
-      <c r="O24" s="141" t="n"/>
-      <c r="P24" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="137" t="inlineStr">
+      <c r="N24" s="139" t="n"/>
+      <c r="O24" s="139" t="n"/>
+      <c r="P24" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S24" s="112" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="25" s="111">
+      <c r="S24" s="110" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.75" r="25" s="109">
       <c r="F25" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао порошок алкалізований </t>
         </is>
       </c>
-      <c r="G25" s="108" t="n"/>
-      <c r="H25" s="108" t="n"/>
-      <c r="I25" s="120" t="inlineStr">
+      <c r="G25" s="106" t="n"/>
+      <c r="H25" s="106" t="n"/>
+      <c r="I25" s="118" t="inlineStr">
         <is>
           <t>R-3</t>
         </is>
       </c>
-      <c r="J25" s="108" t="n"/>
-      <c r="K25" s="117" t="inlineStr">
+      <c r="J25" s="106" t="n"/>
+      <c r="K25" s="115" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L25" s="94" t="inlineStr">
+      <c r="L25" s="92" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M25" s="145" t="inlineStr">
+      <c r="M25" s="143" t="inlineStr">
         <is>
           <t>Нідерланди</t>
         </is>
       </c>
-      <c r="N25" s="145" t="n"/>
-      <c r="O25" s="145" t="n"/>
-      <c r="P25" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="67" t="inlineStr">
+      <c r="N25" s="143" t="n"/>
+      <c r="O25" s="143" t="n"/>
+      <c r="P25" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S25" s="112" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="26" s="111">
-      <c r="F26" s="132" t="inlineStr">
+      <c r="S25" s="110" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.75" r="26" s="109">
+      <c r="F26" s="130" t="inlineStr">
         <is>
           <t>Какао порошок алкалізований</t>
         </is>
       </c>
-      <c r="G26" s="133" t="n"/>
-      <c r="H26" s="133" t="n"/>
-      <c r="I26" s="134" t="inlineStr">
+      <c r="G26" s="131" t="n"/>
+      <c r="H26" s="131" t="n"/>
+      <c r="I26" s="132" t="inlineStr">
         <is>
           <t>JB-800</t>
         </is>
       </c>
-      <c r="J26" s="133" t="n"/>
-      <c r="K26" s="154" t="inlineStr">
+      <c r="J26" s="131" t="n"/>
+      <c r="K26" s="152" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L26" s="135" t="inlineStr">
+      <c r="L26" s="133" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="M26" s="141" t="inlineStr">
+      <c r="M26" s="139" t="inlineStr">
         <is>
           <t>Малайзія/Індонезія</t>
         </is>
       </c>
-      <c r="N26" s="141" t="n"/>
-      <c r="O26" s="141" t="n"/>
-      <c r="P26" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="137" t="inlineStr">
+      <c r="N26" s="139" t="n"/>
+      <c r="O26" s="139" t="n"/>
+      <c r="P26" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S26" s="112" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="27" s="111">
+      <c r="S26" s="110" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.75" r="27" s="109">
       <c r="F27" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао порошок алкалізований </t>
         </is>
       </c>
-      <c r="G27" s="108" t="n"/>
-      <c r="H27" s="108" t="n"/>
-      <c r="I27" s="120" t="inlineStr">
+      <c r="G27" s="106" t="n"/>
+      <c r="H27" s="106" t="n"/>
+      <c r="I27" s="118" t="inlineStr">
         <is>
           <t>S75</t>
         </is>
       </c>
-      <c r="J27" s="108" t="n"/>
-      <c r="K27" s="117" t="inlineStr">
+      <c r="J27" s="106" t="n"/>
+      <c r="K27" s="115" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L27" s="94" t="inlineStr">
+      <c r="L27" s="92" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M27" s="145" t="inlineStr">
+      <c r="M27" s="143" t="inlineStr">
         <is>
           <t xml:space="preserve">Німеччина </t>
         </is>
       </c>
-      <c r="N27" s="145" t="n"/>
-      <c r="O27" s="145" t="n"/>
-      <c r="P27" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="67" t="inlineStr">
+      <c r="N27" s="143" t="n"/>
+      <c r="O27" s="143" t="n"/>
+      <c r="P27" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S27" s="112" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="28" s="111">
-      <c r="F28" s="132" t="inlineStr">
+      <c r="S27" s="110" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27.75" r="28" s="109">
+      <c r="F28" s="130" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао порошок алкалізований  </t>
         </is>
       </c>
-      <c r="G28" s="133" t="n"/>
-      <c r="H28" s="133" t="n"/>
-      <c r="I28" s="134" t="inlineStr">
+      <c r="G28" s="131" t="n"/>
+      <c r="H28" s="131" t="n"/>
+      <c r="I28" s="132" t="inlineStr">
         <is>
           <t>S85</t>
         </is>
       </c>
-      <c r="J28" s="133" t="n"/>
-      <c r="K28" s="154" t="inlineStr">
+      <c r="J28" s="131" t="n"/>
+      <c r="K28" s="152" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L28" s="135" t="inlineStr">
+      <c r="L28" s="133" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M28" s="141" t="inlineStr">
+      <c r="M28" s="139" t="inlineStr">
         <is>
           <t xml:space="preserve">Німеччина </t>
         </is>
       </c>
-      <c r="N28" s="141" t="n"/>
-      <c r="O28" s="141" t="n"/>
-      <c r="P28" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="137" t="inlineStr">
+      <c r="N28" s="139" t="n"/>
+      <c r="O28" s="139" t="n"/>
+      <c r="P28" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S28" s="112" t="n"/>
+      <c r="S28" s="110" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="29">
-      <c r="A29" s="111" t="n"/>
-      <c r="B29" s="111" t="n"/>
-      <c r="C29" s="111" t="n"/>
-      <c r="D29" s="111" t="n"/>
+      <c r="A29" s="109" t="n"/>
+      <c r="B29" s="109" t="n"/>
+      <c r="C29" s="109" t="n"/>
+      <c r="D29" s="109" t="n"/>
       <c r="F29" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао порошок алкалізований  </t>
         </is>
       </c>
-      <c r="G29" s="108" t="n"/>
-      <c r="H29" s="108" t="n"/>
-      <c r="I29" s="120" t="inlineStr">
+      <c r="G29" s="106" t="n"/>
+      <c r="H29" s="106" t="n"/>
+      <c r="I29" s="118" t="inlineStr">
         <is>
           <t>S9</t>
         </is>
       </c>
-      <c r="J29" s="108" t="n"/>
-      <c r="K29" s="117" t="inlineStr">
+      <c r="J29" s="106" t="n"/>
+      <c r="K29" s="115" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L29" s="94" t="inlineStr">
+      <c r="L29" s="92" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M29" s="145" t="inlineStr">
+      <c r="M29" s="143" t="inlineStr">
         <is>
           <t xml:space="preserve">Німеччина </t>
         </is>
       </c>
-      <c r="N29" s="145" t="n"/>
-      <c r="O29" s="145" t="n"/>
-      <c r="P29" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="67" t="inlineStr">
+      <c r="N29" s="143" t="n"/>
+      <c r="O29" s="143" t="n"/>
+      <c r="P29" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R29" s="113" t="n"/>
-      <c r="S29" s="111" t="n"/>
+      <c r="R29" s="111" t="n"/>
+      <c r="S29" s="109" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="30">
-      <c r="A30" s="111" t="n"/>
-      <c r="B30" s="111" t="n"/>
-      <c r="C30" s="111" t="n"/>
-      <c r="D30" s="111" t="n"/>
-      <c r="F30" s="132" t="inlineStr">
+      <c r="A30" s="109" t="n"/>
+      <c r="B30" s="109" t="n"/>
+      <c r="C30" s="109" t="n"/>
+      <c r="D30" s="109" t="n"/>
+      <c r="F30" s="130" t="inlineStr">
         <is>
           <t>Какао порошок алкалізований</t>
         </is>
       </c>
-      <c r="G30" s="133" t="n"/>
-      <c r="H30" s="133" t="n"/>
-      <c r="I30" s="134" t="inlineStr">
+      <c r="G30" s="131" t="n"/>
+      <c r="H30" s="131" t="n"/>
+      <c r="I30" s="132" t="inlineStr">
         <is>
           <t>D11EB</t>
         </is>
       </c>
-      <c r="J30" s="133" t="n"/>
-      <c r="K30" s="154" t="inlineStr">
+      <c r="J30" s="131" t="n"/>
+      <c r="K30" s="152" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L30" s="135" t="inlineStr">
+      <c r="L30" s="133" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M30" s="141" t="inlineStr">
+      <c r="M30" s="139" t="inlineStr">
         <is>
           <t xml:space="preserve">Німеччина </t>
         </is>
       </c>
-      <c r="N30" s="141" t="n"/>
-      <c r="P30" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="137" t="inlineStr">
+      <c r="N30" s="139" t="n"/>
+      <c r="P30" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R30" s="113" t="n"/>
-      <c r="S30" s="111" t="n"/>
+      <c r="R30" s="111" t="n"/>
+      <c r="S30" s="109" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="31">
       <c r="F31" s="13" t="inlineStr">
@@ -2223,80 +2190,80 @@
           <t>Какао порошок алкалізований</t>
         </is>
       </c>
-      <c r="G31" s="108" t="n"/>
-      <c r="H31" s="108" t="n"/>
-      <c r="I31" s="120" t="inlineStr">
+      <c r="G31" s="106" t="n"/>
+      <c r="H31" s="106" t="n"/>
+      <c r="I31" s="118" t="inlineStr">
         <is>
           <t>D11B</t>
         </is>
       </c>
-      <c r="J31" s="108" t="n"/>
-      <c r="K31" s="117" t="inlineStr">
+      <c r="J31" s="106" t="n"/>
+      <c r="K31" s="115" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L31" s="94" t="inlineStr">
+      <c r="L31" s="92" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M31" s="145" t="inlineStr">
+      <c r="M31" s="143" t="inlineStr">
         <is>
           <t xml:space="preserve">Німеччина </t>
         </is>
       </c>
-      <c r="N31" s="145" t="n"/>
-      <c r="O31" s="145" t="n"/>
-      <c r="P31" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="67" t="inlineStr">
+      <c r="N31" s="143" t="n"/>
+      <c r="O31" s="143" t="n"/>
+      <c r="P31" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R31" s="123" t="n"/>
+      <c r="R31" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="32">
-      <c r="F32" s="132" t="inlineStr">
+      <c r="F32" s="130" t="inlineStr">
         <is>
           <t>Какао порошок алкалізований</t>
         </is>
       </c>
-      <c r="G32" s="133" t="n"/>
-      <c r="H32" s="133" t="n"/>
-      <c r="I32" s="134" t="inlineStr">
+      <c r="G32" s="131" t="n"/>
+      <c r="H32" s="131" t="n"/>
+      <c r="I32" s="132" t="inlineStr">
         <is>
           <t>D11RB</t>
         </is>
       </c>
-      <c r="J32" s="133" t="n"/>
-      <c r="K32" s="154" t="inlineStr">
+      <c r="J32" s="131" t="n"/>
+      <c r="K32" s="152" t="inlineStr">
         <is>
           <t>10-12%</t>
         </is>
       </c>
-      <c r="L32" s="135" t="inlineStr">
+      <c r="L32" s="133" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M32" s="141" t="inlineStr">
+      <c r="M32" s="139" t="inlineStr">
         <is>
           <t>Нідерланди</t>
         </is>
       </c>
-      <c r="N32" s="141" t="n"/>
-      <c r="P32" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="137" t="inlineStr">
+      <c r="N32" s="139" t="n"/>
+      <c r="P32" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R32" s="123" t="n"/>
+      <c r="R32" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="27.75" r="33">
       <c r="F33" s="13" t="inlineStr">
@@ -2304,629 +2271,629 @@
           <t>Какао порошок алкалізований</t>
         </is>
       </c>
-      <c r="G33" s="108" t="n"/>
-      <c r="H33" s="108" t="n"/>
-      <c r="I33" s="120" t="inlineStr">
+      <c r="G33" s="106" t="n"/>
+      <c r="H33" s="106" t="n"/>
+      <c r="I33" s="118" t="inlineStr">
         <is>
           <t>D21S</t>
         </is>
       </c>
-      <c r="J33" s="108" t="n"/>
-      <c r="K33" s="117" t="inlineStr">
+      <c r="J33" s="106" t="n"/>
+      <c r="K33" s="115" t="inlineStr">
         <is>
           <t>20-22%</t>
         </is>
       </c>
-      <c r="L33" s="94" t="inlineStr">
+      <c r="L33" s="92" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M33" s="145" t="inlineStr">
+      <c r="M33" s="143" t="inlineStr">
         <is>
           <t>Нідерланди</t>
         </is>
       </c>
-      <c r="N33" s="145" t="n"/>
-      <c r="O33" s="145" t="n"/>
-      <c r="P33" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="67" t="inlineStr">
+      <c r="N33" s="143" t="n"/>
+      <c r="O33" s="143" t="n"/>
+      <c r="P33" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R33" s="123" t="n"/>
+      <c r="R33" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="3" r="34">
-      <c r="F34" s="132" t="inlineStr">
+      <c r="F34" s="130" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао-терте </t>
         </is>
       </c>
-      <c r="G34" s="133" t="n"/>
-      <c r="H34" s="133" t="n"/>
-      <c r="I34" s="134" t="inlineStr">
+      <c r="G34" s="131" t="n"/>
+      <c r="H34" s="131" t="n"/>
+      <c r="I34" s="132" t="inlineStr">
         <is>
           <t>TNM</t>
         </is>
       </c>
-      <c r="J34" s="133" t="n"/>
-      <c r="K34" s="138" t="n">
+      <c r="J34" s="131" t="n"/>
+      <c r="K34" s="136" t="n">
         <v>0.54</v>
       </c>
-      <c r="L34" s="135" t="inlineStr">
+      <c r="L34" s="133" t="inlineStr">
         <is>
           <t>PLOT</t>
         </is>
       </c>
-      <c r="M34" s="141" t="inlineStr">
+      <c r="M34" s="139" t="inlineStr">
         <is>
           <t>Кот-д'Івуар</t>
         </is>
       </c>
-      <c r="N34" s="141" t="n"/>
-      <c r="P34" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="137" t="inlineStr">
+      <c r="N34" s="139" t="n"/>
+      <c r="P34" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R34" s="123" t="n"/>
+      <c r="R34" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="2.25" r="35">
-      <c r="A35" s="111" t="n"/>
-      <c r="B35" s="111" t="n"/>
-      <c r="C35" s="111" t="n"/>
-      <c r="D35" s="111" t="n"/>
-      <c r="E35" s="111" t="n"/>
+      <c r="A35" s="109" t="n"/>
+      <c r="B35" s="109" t="n"/>
+      <c r="C35" s="109" t="n"/>
+      <c r="D35" s="109" t="n"/>
+      <c r="E35" s="109" t="n"/>
       <c r="F35" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао масло дезодороване </t>
         </is>
       </c>
-      <c r="G35" s="108" t="n"/>
-      <c r="H35" s="108" t="n"/>
-      <c r="I35" s="120" t="inlineStr">
+      <c r="G35" s="106" t="n"/>
+      <c r="H35" s="106" t="n"/>
+      <c r="I35" s="118" t="inlineStr">
         <is>
           <t>PPP</t>
         </is>
       </c>
-      <c r="J35" s="108" t="n"/>
+      <c r="J35" s="106" t="n"/>
       <c r="K35" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="94" t="inlineStr">
+      <c r="L35" s="92" t="inlineStr">
         <is>
           <t>Cargill</t>
         </is>
       </c>
-      <c r="M35" s="145" t="inlineStr">
+      <c r="M35" s="143" t="inlineStr">
         <is>
           <t>Нідерланди</t>
         </is>
       </c>
-      <c r="N35" s="145" t="n"/>
-      <c r="O35" s="145" t="n"/>
-      <c r="P35" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="67" t="inlineStr">
+      <c r="N35" s="143" t="n"/>
+      <c r="O35" s="143" t="n"/>
+      <c r="P35" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R35" s="113" t="n"/>
-      <c r="S35" s="111" t="n"/>
+      <c r="R35" s="111" t="n"/>
+      <c r="S35" s="109" t="n"/>
     </row>
     <row customHeight="1" ht="42" r="36">
-      <c r="E36" s="111" t="n"/>
-      <c r="F36" s="132" t="inlineStr">
+      <c r="E36" s="109" t="n"/>
+      <c r="F36" s="130" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао масло дезодороване  </t>
         </is>
       </c>
-      <c r="G36" s="133" t="n"/>
-      <c r="H36" s="133" t="n"/>
-      <c r="I36" s="134" t="inlineStr">
+      <c r="G36" s="131" t="n"/>
+      <c r="H36" s="131" t="n"/>
+      <c r="I36" s="132" t="inlineStr">
         <is>
           <t>Unicao</t>
         </is>
       </c>
-      <c r="J36" s="133" t="n"/>
-      <c r="K36" s="138" t="n">
+      <c r="J36" s="131" t="n"/>
+      <c r="K36" s="136" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="135" t="inlineStr">
+      <c r="L36" s="133" t="inlineStr">
         <is>
           <t>Olam</t>
         </is>
       </c>
-      <c r="M36" s="141" t="inlineStr">
+      <c r="M36" s="139" t="inlineStr">
         <is>
           <t>Нідерланди</t>
         </is>
       </c>
-      <c r="N36" s="141" t="n"/>
-      <c r="P36" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="137" t="inlineStr">
+      <c r="N36" s="139" t="n"/>
+      <c r="P36" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R36" s="123" t="n"/>
+      <c r="R36" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="39.75" r="37">
-      <c r="E37" s="111" t="n"/>
+      <c r="E37" s="109" t="n"/>
       <c r="F37" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао масло дезодороване  </t>
         </is>
       </c>
-      <c r="G37" s="108" t="n"/>
-      <c r="H37" s="108" t="n"/>
-      <c r="I37" s="120" t="inlineStr">
+      <c r="G37" s="106" t="n"/>
+      <c r="H37" s="106" t="n"/>
+      <c r="I37" s="118" t="inlineStr">
         <is>
           <t>JB080-DB</t>
         </is>
       </c>
-      <c r="J37" s="108" t="n"/>
+      <c r="J37" s="106" t="n"/>
       <c r="K37" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="94" t="inlineStr">
+      <c r="L37" s="92" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="M37" s="145" t="inlineStr">
+      <c r="M37" s="143" t="inlineStr">
         <is>
           <t>Малайзія</t>
         </is>
       </c>
-      <c r="N37" s="145" t="n"/>
-      <c r="O37" s="145" t="n"/>
-      <c r="P37" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="67" t="inlineStr">
+      <c r="N37" s="143" t="n"/>
+      <c r="O37" s="143" t="n"/>
+      <c r="P37" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R37" s="123" t="n"/>
+      <c r="R37" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="20.25" r="38">
-      <c r="E38" s="111" t="n"/>
-      <c r="F38" s="132" t="inlineStr">
+      <c r="E38" s="109" t="n"/>
+      <c r="F38" s="130" t="inlineStr">
         <is>
           <t>Какао масло натуральне</t>
         </is>
       </c>
-      <c r="G38" s="133" t="n"/>
-      <c r="H38" s="133" t="n"/>
-      <c r="I38" s="134" t="inlineStr">
+      <c r="G38" s="131" t="n"/>
+      <c r="H38" s="131" t="n"/>
+      <c r="I38" s="132" t="inlineStr">
         <is>
           <t>JB100-PPP</t>
         </is>
       </c>
-      <c r="J38" s="133" t="n"/>
-      <c r="K38" s="138" t="n">
+      <c r="J38" s="131" t="n"/>
+      <c r="K38" s="136" t="n">
         <v>1</v>
       </c>
-      <c r="L38" s="135" t="inlineStr">
+      <c r="L38" s="133" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="M38" s="141" t="inlineStr">
+      <c r="M38" s="139" t="inlineStr">
         <is>
           <t>Малайзія</t>
         </is>
       </c>
-      <c r="N38" s="141" t="n"/>
-      <c r="P38" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="137" t="inlineStr">
+      <c r="N38" s="139" t="n"/>
+      <c r="P38" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R38" s="123" t="n"/>
+      <c r="R38" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="39">
-      <c r="E39" s="114" t="n"/>
-      <c r="F39" s="108" t="inlineStr">
+      <c r="E39" s="112" t="n"/>
+      <c r="F39" s="106" t="inlineStr">
         <is>
           <t xml:space="preserve">Еквівалент какао масла </t>
         </is>
       </c>
-      <c r="G39" s="108" t="n"/>
-      <c r="H39" s="108" t="n"/>
-      <c r="I39" s="120" t="inlineStr">
+      <c r="G39" s="106" t="n"/>
+      <c r="H39" s="106" t="n"/>
+      <c r="I39" s="118" t="inlineStr">
         <is>
           <t>Illexao CB 50</t>
         </is>
       </c>
-      <c r="J39" s="108" t="n"/>
+      <c r="J39" s="106" t="n"/>
       <c r="K39" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L39" s="94" t="inlineStr">
+      <c r="L39" s="92" t="inlineStr">
         <is>
           <t>AAK</t>
         </is>
       </c>
-      <c r="M39" s="145" t="inlineStr">
+      <c r="M39" s="143" t="inlineStr">
         <is>
           <t>Швеція</t>
         </is>
       </c>
-      <c r="N39" s="145" t="n"/>
-      <c r="O39" s="145" t="n"/>
-      <c r="P39" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="67" t="inlineStr">
+      <c r="N39" s="143" t="n"/>
+      <c r="O39" s="143" t="n"/>
+      <c r="P39" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R39" s="123" t="n"/>
+      <c r="R39" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="33" r="40">
-      <c r="C40" s="107" t="n"/>
-      <c r="E40" s="114" t="n"/>
-      <c r="F40" s="139" t="inlineStr">
+      <c r="C40" s="105" t="n"/>
+      <c r="E40" s="112" t="n"/>
+      <c r="F40" s="137" t="inlineStr">
         <is>
           <t xml:space="preserve">Лаурин.замін.какао масла(CBS) </t>
         </is>
       </c>
-      <c r="G40" s="133" t="n"/>
-      <c r="H40" s="133" t="n"/>
-      <c r="I40" s="134" t="inlineStr">
+      <c r="G40" s="131" t="n"/>
+      <c r="H40" s="131" t="n"/>
+      <c r="I40" s="132" t="inlineStr">
         <is>
           <t>STAROIL</t>
         </is>
       </c>
-      <c r="J40" s="133" t="n"/>
-      <c r="K40" s="138" t="n">
+      <c r="J40" s="131" t="n"/>
+      <c r="K40" s="136" t="n">
         <v>1</v>
       </c>
-      <c r="L40" s="135" t="inlineStr">
+      <c r="L40" s="133" t="inlineStr">
         <is>
           <t>PVO</t>
         </is>
       </c>
-      <c r="M40" s="141" t="inlineStr">
+      <c r="M40" s="139" t="inlineStr">
         <is>
           <t xml:space="preserve">Малайзія </t>
         </is>
       </c>
-      <c r="N40" s="141" t="n"/>
-      <c r="P40" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="137" t="inlineStr">
+      <c r="N40" s="139" t="n"/>
+      <c r="P40" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R40" s="123" t="n"/>
+      <c r="R40" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="41">
-      <c r="C41" s="107" t="n"/>
-      <c r="E41" s="111" t="n"/>
+      <c r="C41" s="105" t="n"/>
+      <c r="E41" s="109" t="n"/>
       <c r="F41" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Лаурин.замін.какао масла(CBS) </t>
         </is>
       </c>
-      <c r="G41" s="108" t="n"/>
-      <c r="H41" s="108" t="n"/>
-      <c r="I41" s="120" t="inlineStr">
+      <c r="G41" s="106" t="n"/>
+      <c r="H41" s="106" t="n"/>
+      <c r="I41" s="118" t="inlineStr">
         <is>
           <t>CEBES MC 80</t>
         </is>
       </c>
-      <c r="J41" s="108" t="n"/>
+      <c r="J41" s="106" t="n"/>
       <c r="K41" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L41" s="94" t="inlineStr">
+      <c r="L41" s="92" t="inlineStr">
         <is>
           <t>AAK</t>
         </is>
       </c>
-      <c r="M41" s="145" t="inlineStr">
+      <c r="M41" s="143" t="inlineStr">
         <is>
           <t>Малайзія</t>
         </is>
       </c>
-      <c r="N41" s="145" t="n"/>
-      <c r="O41" s="145" t="n"/>
-      <c r="P41" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="67" t="inlineStr">
+      <c r="N41" s="143" t="n"/>
+      <c r="O41" s="143" t="n"/>
+      <c r="P41" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R41" s="123" t="n"/>
+      <c r="R41" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="42">
-      <c r="C42" s="107" t="n"/>
-      <c r="E42" s="111" t="n"/>
-      <c r="F42" s="148" t="inlineStr">
+      <c r="C42" s="105" t="n"/>
+      <c r="E42" s="109" t="n"/>
+      <c r="F42" s="146" t="inlineStr">
         <is>
           <t>Лецитин соєвий</t>
         </is>
       </c>
-      <c r="I42" s="142" t="inlineStr">
+      <c r="I42" s="140" t="inlineStr">
         <is>
           <t>ADLEC E322</t>
         </is>
       </c>
-      <c r="K42" s="154" t="inlineStr">
+      <c r="K42" s="152" t="inlineStr">
         <is>
           <t xml:space="preserve">      -</t>
         </is>
       </c>
-      <c r="L42" s="143" t="inlineStr">
+      <c r="L42" s="141" t="inlineStr">
         <is>
           <t xml:space="preserve"> ADM</t>
         </is>
       </c>
-      <c r="M42" s="141" t="inlineStr">
+      <c r="M42" s="139" t="inlineStr">
         <is>
           <t>Нідерланди</t>
         </is>
       </c>
-      <c r="N42" s="141" t="n"/>
-      <c r="P42" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="137" t="inlineStr">
+      <c r="N42" s="139" t="n"/>
+      <c r="P42" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R42" s="123" t="n"/>
+      <c r="R42" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="29.25" r="43">
-      <c r="E43" s="111" t="n"/>
-      <c r="F43" s="149" t="inlineStr">
+      <c r="E43" s="109" t="n"/>
+      <c r="F43" s="147" t="inlineStr">
         <is>
           <t>Рафінована кокосова олія</t>
         </is>
       </c>
-      <c r="G43" s="145" t="n"/>
-      <c r="H43" s="145" t="n"/>
-      <c r="I43" s="150" t="inlineStr">
+      <c r="G43" s="143" t="n"/>
+      <c r="H43" s="143" t="n"/>
+      <c r="I43" s="148" t="inlineStr">
         <is>
           <t>RCNO</t>
         </is>
       </c>
-      <c r="J43" s="145" t="n"/>
+      <c r="J43" s="143" t="n"/>
       <c r="K43" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L43" s="146" t="inlineStr">
+      <c r="L43" s="144" t="inlineStr">
         <is>
           <t>PVO</t>
         </is>
       </c>
-      <c r="M43" s="145" t="inlineStr">
+      <c r="M43" s="143" t="inlineStr">
         <is>
           <t>Малайзія</t>
         </is>
       </c>
-      <c r="N43" s="145" t="n"/>
-      <c r="O43" s="145" t="n"/>
-      <c r="P43" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="67" t="inlineStr">
+      <c r="N43" s="143" t="n"/>
+      <c r="O43" s="143" t="n"/>
+      <c r="P43" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R43" s="123" t="n"/>
+      <c r="R43" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="36" r="44">
-      <c r="F44" s="148" t="inlineStr">
+      <c r="F44" s="146" t="inlineStr">
         <is>
           <t>Замінник молочного жиру</t>
         </is>
       </c>
-      <c r="I44" s="142" t="inlineStr">
+      <c r="I44" s="140" t="inlineStr">
         <is>
           <t>MRF 2932</t>
         </is>
       </c>
-      <c r="K44" s="154" t="inlineStr">
+      <c r="K44" s="152" t="inlineStr">
         <is>
           <t xml:space="preserve">      -</t>
         </is>
       </c>
-      <c r="L44" s="135" t="inlineStr">
+      <c r="L44" s="133" t="inlineStr">
         <is>
           <t>PVO</t>
         </is>
       </c>
-      <c r="M44" s="141" t="inlineStr">
+      <c r="M44" s="139" t="inlineStr">
         <is>
           <t xml:space="preserve">Малайзія </t>
         </is>
       </c>
-      <c r="N44" s="141" t="n"/>
-      <c r="P44" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="137" t="inlineStr">
+      <c r="N44" s="139" t="n"/>
+      <c r="P44" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="R44" s="123" t="n"/>
+      <c r="R44" s="121" t="n"/>
     </row>
     <row customHeight="1" ht="32.25" r="45">
-      <c r="F45" s="149" t="inlineStr">
+      <c r="F45" s="147" t="inlineStr">
         <is>
           <t>Гідрогінізовано-рафінована пальмоядрова олія</t>
         </is>
       </c>
-      <c r="G45" s="145" t="n"/>
-      <c r="H45" s="145" t="n"/>
-      <c r="I45" s="150" t="inlineStr">
+      <c r="G45" s="143" t="n"/>
+      <c r="H45" s="143" t="n"/>
+      <c r="I45" s="148" t="inlineStr">
         <is>
           <t>Pcote 368</t>
         </is>
       </c>
-      <c r="J45" s="145" t="n"/>
+      <c r="J45" s="143" t="n"/>
       <c r="K45" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="146" t="inlineStr">
+      <c r="L45" s="144" t="inlineStr">
         <is>
           <t>PVO</t>
         </is>
       </c>
-      <c r="M45" s="145" t="inlineStr">
+      <c r="M45" s="143" t="inlineStr">
         <is>
           <t>Малайзія</t>
         </is>
       </c>
-      <c r="N45" s="145" t="n"/>
-      <c r="O45" s="145" t="n"/>
-      <c r="P45" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="67" t="inlineStr">
+      <c r="N45" s="143" t="n"/>
+      <c r="O45" s="143" t="n"/>
+      <c r="P45" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="65" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="31.5" r="46">
-      <c r="F46" s="148" t="inlineStr">
+      <c r="F46" s="146" t="inlineStr">
         <is>
           <t>RBD пальмовий олеїн</t>
         </is>
       </c>
-      <c r="I46" s="142" t="inlineStr">
+      <c r="I46" s="140" t="inlineStr">
         <is>
           <t>RBD</t>
         </is>
       </c>
-      <c r="K46" s="154" t="inlineStr">
+      <c r="K46" s="152" t="inlineStr">
         <is>
           <t xml:space="preserve">      -</t>
         </is>
       </c>
-      <c r="L46" s="135" t="inlineStr">
+      <c r="L46" s="133" t="inlineStr">
         <is>
           <t>PVO</t>
         </is>
       </c>
-      <c r="M46" s="141" t="inlineStr">
+      <c r="M46" s="139" t="inlineStr">
         <is>
           <t xml:space="preserve">Малайзія </t>
         </is>
       </c>
-      <c r="N46" s="141" t="n"/>
-      <c r="P46" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="137" t="inlineStr">
+      <c r="N46" s="139" t="n"/>
+      <c r="P46" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="37.5" r="47">
-      <c r="F47" s="149" t="n"/>
-      <c r="G47" s="145" t="n"/>
-      <c r="H47" s="145" t="n"/>
-      <c r="I47" s="150" t="n"/>
-      <c r="J47" s="145" t="n"/>
+      <c r="F47" s="147" t="n"/>
+      <c r="G47" s="143" t="n"/>
+      <c r="H47" s="143" t="n"/>
+      <c r="I47" s="148" t="n"/>
+      <c r="J47" s="143" t="n"/>
       <c r="K47" s="14" t="n"/>
-      <c r="L47" s="146" t="n"/>
-      <c r="M47" s="145" t="n"/>
-      <c r="N47" s="145" t="n"/>
-      <c r="O47" s="145" t="n"/>
-      <c r="P47" s="147" t="n"/>
-      <c r="Q47" s="67" t="n"/>
+      <c r="L47" s="144" t="n"/>
+      <c r="M47" s="143" t="n"/>
+      <c r="N47" s="143" t="n"/>
+      <c r="O47" s="143" t="n"/>
+      <c r="P47" s="145" t="n"/>
+      <c r="Q47" s="65" t="n"/>
     </row>
     <row customHeight="1" ht="20.25" r="48">
-      <c r="E48" s="111" t="n"/>
-      <c r="F48" s="126" t="n"/>
-      <c r="G48" s="127" t="n"/>
-      <c r="H48" s="127" t="n"/>
-      <c r="I48" s="128" t="n"/>
-      <c r="J48" s="127" t="n"/>
-      <c r="K48" s="124" t="n"/>
-      <c r="L48" s="129" t="n"/>
-      <c r="M48" s="125" t="n"/>
-      <c r="N48" s="127" t="n"/>
-      <c r="O48" s="127" t="n"/>
-      <c r="P48" s="130" t="n"/>
-      <c r="Q48" s="131" t="n"/>
+      <c r="E48" s="109" t="n"/>
+      <c r="F48" s="124" t="n"/>
+      <c r="G48" s="125" t="n"/>
+      <c r="H48" s="125" t="n"/>
+      <c r="I48" s="126" t="n"/>
+      <c r="J48" s="125" t="n"/>
+      <c r="K48" s="122" t="n"/>
+      <c r="L48" s="127" t="n"/>
+      <c r="M48" s="123" t="n"/>
+      <c r="N48" s="125" t="n"/>
+      <c r="O48" s="125" t="n"/>
+      <c r="P48" s="128" t="n"/>
+      <c r="Q48" s="129" t="n"/>
     </row>
     <row customHeight="1" ht="30.75" r="49">
-      <c r="F49" s="154" t="n"/>
-      <c r="I49" s="142" t="n"/>
-      <c r="L49" s="92" t="n"/>
-      <c r="N49" s="141" t="n"/>
-      <c r="P49" s="69" t="n"/>
+      <c r="F49" s="152" t="n"/>
+      <c r="I49" s="140" t="n"/>
+      <c r="L49" s="90" t="n"/>
+      <c r="N49" s="139" t="n"/>
+      <c r="P49" s="67" t="n"/>
     </row>
     <row customHeight="1" ht="20.25" r="50"/>
     <row customHeight="1" ht="20.25" r="51"/>
     <row customHeight="1" ht="20.25" r="52"/>
     <row customHeight="1" ht="27.75" r="53">
-      <c r="F53" s="132" t="inlineStr">
+      <c r="F53" s="130" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао-терте </t>
         </is>
       </c>
-      <c r="G53" s="133" t="n"/>
-      <c r="H53" s="133" t="n"/>
-      <c r="I53" s="134" t="inlineStr">
+      <c r="G53" s="131" t="n"/>
+      <c r="H53" s="131" t="n"/>
+      <c r="I53" s="132" t="inlineStr">
         <is>
           <t>IVC04</t>
         </is>
       </c>
-      <c r="J53" s="133" t="n"/>
-      <c r="K53" s="138" t="n">
+      <c r="J53" s="131" t="n"/>
+      <c r="K53" s="136" t="n">
         <v>0.54</v>
       </c>
-      <c r="L53" s="135" t="inlineStr">
+      <c r="L53" s="133" t="inlineStr">
         <is>
           <t>Cargill</t>
         </is>
       </c>
-      <c r="M53" s="141" t="inlineStr">
+      <c r="M53" s="139" t="inlineStr">
         <is>
           <t>Кот-д'Ивуар</t>
         </is>
       </c>
-      <c r="N53" s="141" t="n"/>
-      <c r="P53" s="136" t="n">
+      <c r="N53" s="139" t="n"/>
+      <c r="P53" s="134" t="n">
         <v>220.4</v>
       </c>
-      <c r="Q53" s="137" t="inlineStr">
+      <c r="Q53" s="135" t="inlineStr">
         <is>
           <t>грн</t>
         </is>
       </c>
-      <c r="S53" s="109" t="n">
+      <c r="S53" s="107" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2947,231 +2914,212 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P285"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" max="4" min="3" width="10.28515625"/>
     <col customWidth="1" max="7" min="7" width="13.42578125"/>
     <col customWidth="1" max="8" min="8" width="22"/>
+    <col customWidth="1" max="11" min="11" width="14.5703125"/>
+    <col customWidth="1" max="12" min="12" width="11"/>
+    <col customWidth="1" max="13" min="13" width="18.7109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.75" r="1" thickBot="1">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="123" t="n"/>
-      <c r="C1" s="123" t="n"/>
-      <c r="D1" s="54" t="n"/>
+      <c r="B1" s="121" t="n"/>
+      <c r="C1" s="121" t="n"/>
+      <c r="D1" s="52" t="n"/>
     </row>
     <row customHeight="1" ht="30.75" r="2" thickBot="1" thickTop="1">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="215" t="inlineStr">
-        <is>
-          <t>2023-06-01</t>
-        </is>
-      </c>
-      <c r="C2" s="50" t="n"/>
-      <c r="D2" s="51" t="inlineStr">
+      <c r="B2" s="208" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="C2" s="48" t="n"/>
+      <c r="D2" s="49" t="inlineStr">
         <is>
           <t>п/п</t>
         </is>
       </c>
-      <c r="E2" s="50" t="inlineStr">
+      <c r="E2" s="48" t="inlineStr">
         <is>
           <t>о/п</t>
         </is>
       </c>
-      <c r="F2" s="52" t="inlineStr">
+      <c r="F2" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">Price at  </t>
         </is>
       </c>
-      <c r="G2" s="216" t="n">
+      <c r="G2" s="209" t="n">
         <v>44956</v>
       </c>
-      <c r="H2" s="53" t="n"/>
+      <c r="H2" s="51" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" thickTop="1">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="55" t="n"/>
-      <c r="C3" s="213" t="inlineStr">
+      <c r="B3" s="53" t="n"/>
+      <c r="C3" s="206" t="inlineStr">
         <is>
           <t>Dollar</t>
         </is>
       </c>
-      <c r="D3" s="66" t="n">
+      <c r="D3" s="64" t="n">
         <v>37.3</v>
       </c>
-      <c r="E3" s="56" t="n">
+      <c r="E3" s="54" t="n">
         <v>39.9</v>
       </c>
-      <c r="F3" s="57" t="n"/>
-      <c r="G3" s="57" t="n"/>
+      <c r="F3" s="55" t="n"/>
+      <c r="G3" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="28.5" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="58" t="n"/>
-      <c r="C4" s="214" t="inlineStr">
+      <c r="B4" s="56" t="n"/>
+      <c r="C4" s="207" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
-      <c r="D4" s="59" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="E4" s="60" t="n">
-        <v>40.65</v>
-      </c>
-      <c r="F4" s="57" t="n"/>
-      <c r="G4" s="57" t="n"/>
+      <c r="D4" s="57" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E4" s="58" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F4" s="55" t="n"/>
+      <c r="G4" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="5" thickBot="1" thickTop="1">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="123" t="n"/>
-      <c r="C5" s="123" t="n"/>
-      <c r="D5" s="54" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="6" s="140" thickTop="1">
-      <c r="A6" s="204" t="n"/>
-      <c r="B6" s="211" t="inlineStr">
+      <c r="B5" s="121" t="n"/>
+      <c r="C5" s="121" t="n"/>
+      <c r="D5" s="52" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="22.5" r="6" s="138" thickTop="1">
+      <c r="A6" s="197" t="n"/>
+      <c r="B6" s="204" t="inlineStr">
         <is>
           <t>Produts name</t>
         </is>
       </c>
-      <c r="C6" s="212" t="n"/>
-      <c r="D6" s="188" t="n"/>
-      <c r="E6" s="188" t="n"/>
-      <c r="F6" s="188" t="n"/>
-      <c r="G6" s="188" t="n"/>
-      <c r="H6" s="189" t="n"/>
-      <c r="I6" s="190" t="inlineStr">
+      <c r="C6" s="205" t="n"/>
+      <c r="D6" s="184" t="n"/>
+      <c r="E6" s="184" t="n"/>
+      <c r="F6" s="184" t="n"/>
+      <c r="G6" s="184" t="n"/>
+      <c r="H6" s="185" t="n"/>
+      <c r="I6" s="186" t="inlineStr">
         <is>
           <t>In stock</t>
         </is>
       </c>
-      <c r="J6" s="191" t="inlineStr">
+      <c r="J6" s="187" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="K6" s="191" t="inlineStr">
+      <c r="K6" s="187" t="inlineStr">
         <is>
           <t>Val</t>
         </is>
       </c>
-      <c r="L6" s="191" t="inlineStr">
+      <c r="L6" s="187" t="inlineStr">
         <is>
           <t>payment</t>
         </is>
       </c>
-      <c r="M6" s="191" t="inlineStr">
+      <c r="M6" s="187" t="inlineStr">
         <is>
           <t>deferment of payment</t>
         </is>
       </c>
-      <c r="N6" s="192" t="inlineStr">
-        <is>
-          <t>wholesale payment</t>
-        </is>
-      </c>
-      <c r="O6" s="193" t="inlineStr">
-        <is>
-          <t>wholesale deferment payment</t>
-        </is>
-      </c>
-      <c r="P6" s="31" t="inlineStr">
+      <c r="N6" s="31" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="7" s="157">
-      <c r="A7" s="205" t="n"/>
-      <c r="B7" s="39" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="7" s="155">
+      <c r="A7" s="198" t="n"/>
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>Какао порошок натуральний, N11N, De Zaan,Нідерланди</t>
         </is>
       </c>
-      <c r="C7" s="181" t="n"/>
-      <c r="H7" s="182" t="n"/>
-      <c r="I7" s="183" t="n">
+      <c r="C7" s="178" t="n"/>
+      <c r="H7" s="179" t="n"/>
+      <c r="I7" s="180" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="184" t="n">
+      <c r="J7" s="181" t="n">
         <v>4</v>
       </c>
-      <c r="K7" s="184" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L7" s="184" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="185" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="187" t="n">
+      <c r="K7" s="181" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L7" s="181" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="M7" s="182" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="N7" s="183" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="8">
-      <c r="A8" s="206" t="n"/>
-      <c r="B8" s="168" t="inlineStr">
+      <c r="A8" s="199" t="n"/>
+      <c r="B8" s="165" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао порошок натуральний, ” SN”, Schokinag, Німеччина </t>
         </is>
       </c>
-      <c r="C8" s="179" t="n"/>
-      <c r="D8" s="161" t="n"/>
-      <c r="E8" s="161" t="n"/>
-      <c r="F8" s="161" t="n"/>
-      <c r="G8" s="161" t="n"/>
-      <c r="H8" s="162" t="n"/>
-      <c r="I8" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="164" t="n">
+      <c r="C8" s="176" t="n"/>
+      <c r="D8" s="159" t="n"/>
+      <c r="E8" s="159" t="n"/>
+      <c r="F8" s="159" t="n"/>
+      <c r="G8" s="159" t="n"/>
+      <c r="H8" s="160" t="n"/>
+      <c r="I8" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="162" t="n">
         <v>3.95</v>
       </c>
-      <c r="K8" s="164" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L8" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="167" t="n">
+      <c r="K8" s="162" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L8" s="162" t="n">
+        <v>158.79</v>
+      </c>
+      <c r="M8" s="163" t="n">
+        <v>161.16</v>
+      </c>
+      <c r="N8" s="164" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="9" s="158">
-      <c r="A9" s="207" t="n"/>
-      <c r="B9" s="39" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="9" s="156">
+      <c r="A9" s="200" t="n"/>
+      <c r="B9" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve">Какао порошок натуральний, ” JB - 100”, Малайзія </t>
         </is>
       </c>
-      <c r="C9" s="39" t="n"/>
+      <c r="C9" s="37" t="n"/>
       <c r="D9" s="34" t="n"/>
       <c r="E9" s="34" t="n"/>
       <c r="F9" s="34" t="n"/>
@@ -3183,847 +3131,719 @@
       <c r="J9" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="33" t="inlineStr">
-        <is>
-          <t>evro</t>
+      <c r="K9" s="181" t="inlineStr">
+        <is>
+          <t>EVRO</t>
         </is>
       </c>
       <c r="L9" s="33" t="n">
-        <v>0</v>
+        <v>160.8</v>
       </c>
       <c r="M9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="49" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="N9" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="10">
-      <c r="A10" s="206" t="n"/>
-      <c r="B10" s="168" t="inlineStr">
+      <c r="A10" s="199" t="n"/>
+      <c r="B10" s="165" t="inlineStr">
         <is>
           <t>Какао порошок натуральний, ”N21N 20-22%”, De Zaan,Нідерланди</t>
         </is>
       </c>
-      <c r="C10" s="194" t="n"/>
-      <c r="D10" s="168" t="n"/>
-      <c r="E10" s="168" t="n"/>
-      <c r="F10" s="168" t="n"/>
-      <c r="G10" s="168" t="n"/>
-      <c r="H10" s="169" t="n"/>
-      <c r="I10" s="163" t="n">
+      <c r="C10" s="188" t="n"/>
+      <c r="D10" s="165" t="n"/>
+      <c r="E10" s="165" t="n"/>
+      <c r="F10" s="165" t="n"/>
+      <c r="G10" s="165" t="n"/>
+      <c r="H10" s="166" t="n"/>
+      <c r="I10" s="161" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="164" t="n">
+      <c r="J10" s="162" t="n">
         <v>4.6</v>
       </c>
-      <c r="K10" s="164" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L10" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="167" t="n">
+      <c r="K10" s="162" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L10" s="162" t="n">
+        <v>184.92</v>
+      </c>
+      <c r="M10" s="163" t="n">
+        <v>187.68</v>
+      </c>
+      <c r="N10" s="164" t="n">
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="11" s="158">
-      <c r="A11" s="207" t="n"/>
-      <c r="B11" s="39" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="11" s="156">
+      <c r="A11" s="200" t="n"/>
+      <c r="B11" s="37" t="inlineStr">
         <is>
           <t>Какао порошок алкал., ”R-3, OLAM”, Нідерланди</t>
         </is>
       </c>
-      <c r="C11" s="39" t="n"/>
-      <c r="D11" s="39" t="n"/>
-      <c r="E11" s="39" t="n"/>
-      <c r="F11" s="39" t="n"/>
-      <c r="G11" s="39" t="n"/>
-      <c r="H11" s="40" t="n"/>
+      <c r="C11" s="37" t="n"/>
+      <c r="D11" s="37" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
+      <c r="G11" s="37" t="n"/>
+      <c r="H11" s="38" t="n"/>
       <c r="I11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="33" t="n">
         <v>3.8</v>
       </c>
-      <c r="K11" s="33" t="inlineStr">
-        <is>
-          <t>evro</t>
+      <c r="K11" s="181" t="inlineStr">
+        <is>
+          <t>EVRO</t>
         </is>
       </c>
       <c r="L11" s="33" t="n">
-        <v>0</v>
+        <v>152.76</v>
       </c>
       <c r="M11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="49" t="n">
+        <v>155.04</v>
+      </c>
+      <c r="N11" s="47" t="n">
         <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="12">
-      <c r="A12" s="206" t="n"/>
-      <c r="B12" s="168" t="inlineStr">
+      <c r="A12" s="199" t="n"/>
+      <c r="B12" s="165" t="inlineStr">
         <is>
           <t xml:space="preserve"> Какао порошок алкалізований, ”JB-800”, Малайзія </t>
         </is>
       </c>
-      <c r="C12" s="179" t="n"/>
-      <c r="D12" s="168" t="n"/>
-      <c r="E12" s="168" t="n"/>
-      <c r="F12" s="168" t="n"/>
-      <c r="G12" s="168" t="n"/>
-      <c r="H12" s="169" t="n"/>
-      <c r="I12" s="163" t="n">
+      <c r="C12" s="176" t="n"/>
+      <c r="D12" s="165" t="n"/>
+      <c r="E12" s="165" t="n"/>
+      <c r="F12" s="165" t="n"/>
+      <c r="G12" s="165" t="n"/>
+      <c r="H12" s="166" t="n"/>
+      <c r="I12" s="161" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="164" t="n">
+      <c r="J12" s="162" t="n">
         <v>4.2</v>
       </c>
-      <c r="K12" s="164" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L12" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="167" t="n">
+      <c r="K12" s="162" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L12" s="162" t="n">
+        <v>168.84</v>
+      </c>
+      <c r="M12" s="163" t="n">
+        <v>171.36</v>
+      </c>
+      <c r="N12" s="164" t="n">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="13" s="158">
-      <c r="A13" s="207" t="n"/>
-      <c r="B13" s="39" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="13" s="156">
+      <c r="A13" s="200" t="n"/>
+      <c r="B13" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve"> Какао порошок алкалізований, ”JB-550”, Малайзія </t>
         </is>
       </c>
-      <c r="C13" s="195" t="n"/>
-      <c r="D13" s="39" t="n"/>
-      <c r="E13" s="39" t="n"/>
-      <c r="F13" s="39" t="n"/>
-      <c r="G13" s="39" t="n"/>
-      <c r="H13" s="40" t="n"/>
+      <c r="C13" s="189" t="n"/>
+      <c r="D13" s="37" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
+      <c r="G13" s="37" t="n"/>
+      <c r="H13" s="38" t="n"/>
       <c r="I13" s="32" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="33" t="n">
         <v>4.5</v>
       </c>
-      <c r="K13" s="33" t="inlineStr">
-        <is>
-          <t>evro</t>
+      <c r="K13" s="181" t="inlineStr">
+        <is>
+          <t>EVRO</t>
         </is>
       </c>
       <c r="L13" s="33" t="n">
-        <v>0</v>
+        <v>180.9</v>
       </c>
       <c r="M13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="49" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="N13" s="47" t="n">
         <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="14">
-      <c r="A14" s="206" t="n"/>
-      <c r="B14" s="196" t="inlineStr">
+      <c r="A14" s="199" t="n"/>
+      <c r="B14" s="190" t="inlineStr">
         <is>
           <t>Какао порошок алкал.,S75,S85,S9, Schokinag, Німеччина</t>
         </is>
       </c>
-      <c r="C14" s="171" t="n"/>
-      <c r="D14" s="171" t="n"/>
-      <c r="E14" s="171" t="n"/>
-      <c r="F14" s="171" t="n"/>
-      <c r="G14" s="171" t="n"/>
-      <c r="H14" s="172" t="n"/>
-      <c r="I14" s="163" t="n">
+      <c r="C14" s="168" t="n"/>
+      <c r="D14" s="168" t="n"/>
+      <c r="E14" s="168" t="n"/>
+      <c r="F14" s="168" t="n"/>
+      <c r="G14" s="168" t="n"/>
+      <c r="H14" s="169" t="n"/>
+      <c r="I14" s="161" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="164" t="n">
+      <c r="J14" s="162" t="n">
         <v>4.15</v>
       </c>
-      <c r="K14" s="164" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L14" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="167" t="n">
+      <c r="K14" s="162" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L14" s="162" t="n">
+        <v>166.83</v>
+      </c>
+      <c r="M14" s="163" t="n">
+        <v>169.32</v>
+      </c>
+      <c r="N14" s="164" t="n">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="15" s="158">
-      <c r="A15" s="208" t="n"/>
-      <c r="B15" s="159" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="15" s="156">
+      <c r="A15" s="201" t="n"/>
+      <c r="B15" s="157" t="inlineStr">
         <is>
           <t xml:space="preserve"> Какао порошок алкал., ”D 11 EB”, Schokinag, Нідерланди</t>
         </is>
       </c>
-      <c r="C15" s="41" t="n"/>
-      <c r="D15" s="41" t="n"/>
-      <c r="E15" s="41" t="n"/>
-      <c r="F15" s="41" t="n"/>
-      <c r="G15" s="41" t="n"/>
-      <c r="H15" s="42" t="n"/>
+      <c r="C15" s="39" t="n"/>
+      <c r="D15" s="39" t="n"/>
+      <c r="E15" s="39" t="n"/>
+      <c r="F15" s="39" t="n"/>
+      <c r="G15" s="39" t="n"/>
+      <c r="H15" s="40" t="n"/>
       <c r="I15" s="32" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="33" t="n">
         <v>5.3</v>
       </c>
-      <c r="K15" s="33" t="inlineStr">
-        <is>
-          <t>evro</t>
+      <c r="K15" s="181" t="inlineStr">
+        <is>
+          <t>EVRO</t>
         </is>
       </c>
       <c r="L15" s="33" t="n">
-        <v>0</v>
+        <v>213.06</v>
       </c>
       <c r="M15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="49" t="n">
+        <v>216.24</v>
+      </c>
+      <c r="N15" s="47" t="n">
         <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="16">
-      <c r="A16" s="206" t="n"/>
-      <c r="B16" s="196" t="inlineStr">
+      <c r="A16" s="199" t="n"/>
+      <c r="B16" s="190" t="inlineStr">
         <is>
           <t xml:space="preserve"> Какао порошок алкал., ”D 11 RB”, Schokinag, Нідерланди</t>
         </is>
       </c>
-      <c r="C16" s="171" t="n"/>
-      <c r="D16" s="171" t="n"/>
-      <c r="E16" s="171" t="n"/>
-      <c r="F16" s="171" t="n"/>
-      <c r="G16" s="171" t="n"/>
-      <c r="H16" s="172" t="n"/>
-      <c r="I16" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="164" t="n">
+      <c r="C16" s="168" t="n"/>
+      <c r="D16" s="168" t="n"/>
+      <c r="E16" s="168" t="n"/>
+      <c r="F16" s="168" t="n"/>
+      <c r="G16" s="168" t="n"/>
+      <c r="H16" s="169" t="n"/>
+      <c r="I16" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="162" t="n">
         <v>4.2</v>
       </c>
-      <c r="K16" s="164" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L16" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="167" t="n">
+      <c r="K16" s="162" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L16" s="162" t="n">
+        <v>168.84</v>
+      </c>
+      <c r="M16" s="163" t="n">
+        <v>171.36</v>
+      </c>
+      <c r="N16" s="164" t="n">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="17" s="158">
-      <c r="A17" s="207" t="n"/>
-      <c r="B17" s="197" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="17" s="156">
+      <c r="A17" s="200" t="n"/>
+      <c r="B17" s="191" t="inlineStr">
         <is>
           <t>Какао порошок алкал., ”D 11 B”  , De Zaan, Нідерланди</t>
         </is>
       </c>
-      <c r="C17" s="41" t="n"/>
-      <c r="D17" s="41" t="n"/>
-      <c r="E17" s="41" t="n"/>
-      <c r="F17" s="41" t="n"/>
-      <c r="G17" s="41" t="n"/>
-      <c r="H17" s="42" t="n"/>
+      <c r="C17" s="39" t="n"/>
+      <c r="D17" s="39" t="n"/>
+      <c r="E17" s="39" t="n"/>
+      <c r="F17" s="39" t="n"/>
+      <c r="G17" s="39" t="n"/>
+      <c r="H17" s="40" t="n"/>
       <c r="I17" s="32" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="33" t="n">
         <v>4.9</v>
       </c>
-      <c r="K17" s="33" t="inlineStr">
-        <is>
-          <t>evro</t>
+      <c r="K17" s="181" t="inlineStr">
+        <is>
+          <t>EVRO</t>
         </is>
       </c>
       <c r="L17" s="33" t="n">
-        <v>0</v>
+        <v>196.98</v>
       </c>
       <c r="M17" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="49" t="n">
+        <v>199.92</v>
+      </c>
+      <c r="N17" s="47" t="n">
         <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="18">
-      <c r="A18" s="206" t="n"/>
-      <c r="B18" s="171" t="inlineStr">
+      <c r="A18" s="199" t="n"/>
+      <c r="B18" s="168" t="inlineStr">
         <is>
           <t>Какао порошок алкал., ”D 21 S  20-22%”, DeZaan,Нідерланди</t>
         </is>
       </c>
-      <c r="C18" s="171" t="n"/>
-      <c r="D18" s="173" t="n"/>
-      <c r="E18" s="173" t="n"/>
-      <c r="F18" s="173" t="n"/>
-      <c r="G18" s="173" t="n"/>
-      <c r="H18" s="174" t="n"/>
-      <c r="I18" s="163" t="n">
+      <c r="C18" s="168" t="n"/>
+      <c r="D18" s="170" t="n"/>
+      <c r="E18" s="170" t="n"/>
+      <c r="F18" s="170" t="n"/>
+      <c r="G18" s="170" t="n"/>
+      <c r="H18" s="171" t="n"/>
+      <c r="I18" s="161" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="164" t="n">
+      <c r="J18" s="162" t="n">
         <v>4.6</v>
       </c>
-      <c r="K18" s="164" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L18" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="167" t="n">
+      <c r="K18" s="162" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L18" s="162" t="n">
+        <v>184.92</v>
+      </c>
+      <c r="M18" s="163" t="n">
+        <v>187.68</v>
+      </c>
+      <c r="N18" s="164" t="n">
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="19" s="158">
-      <c r="A19" s="208" t="n"/>
-      <c r="B19" s="180" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="19" s="156">
+      <c r="A19" s="201" t="n"/>
+      <c r="B19" s="177" t="inlineStr">
         <is>
           <t>Какао масло дез,Olam Unicao , уп.25кг</t>
         </is>
       </c>
-      <c r="C19" s="43" t="n"/>
-      <c r="D19" s="43" t="n"/>
-      <c r="E19" s="43" t="n"/>
-      <c r="F19" s="43" t="n"/>
-      <c r="G19" s="43" t="n"/>
-      <c r="H19" s="44" t="n"/>
+      <c r="C19" s="41" t="n"/>
+      <c r="D19" s="41" t="n"/>
+      <c r="E19" s="41" t="n"/>
+      <c r="F19" s="41" t="n"/>
+      <c r="G19" s="41" t="n"/>
+      <c r="H19" s="42" t="n"/>
       <c r="I19" s="32" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="K19" s="33" t="inlineStr">
+      <c r="K19" s="46" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L19" s="33" t="n">
+        <v>298.4</v>
+      </c>
+      <c r="M19" s="36" t="n">
+        <v>319.2</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.5" r="20">
+      <c r="A20" s="199" t="n"/>
+      <c r="B20" s="192" t="inlineStr">
+        <is>
+          <t>Какао масло дез,Cargill , уп.25кг</t>
+        </is>
+      </c>
+      <c r="C20" s="172" t="n"/>
+      <c r="D20" s="172" t="n"/>
+      <c r="E20" s="172" t="n"/>
+      <c r="F20" s="172" t="n"/>
+      <c r="G20" s="172" t="n"/>
+      <c r="H20" s="173" t="n"/>
+      <c r="I20" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="162" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L20" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="164" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="22.5" r="21" s="156">
+      <c r="A21" s="200" t="n"/>
+      <c r="B21" s="43" t="inlineStr">
+        <is>
+          <t>Какао масло нат, дез,JB, Малайзія, уп.25кг</t>
+        </is>
+      </c>
+      <c r="C21" s="43" t="n"/>
+      <c r="D21" s="43" t="n"/>
+      <c r="E21" s="43" t="n"/>
+      <c r="F21" s="43" t="n"/>
+      <c r="G21" s="43" t="n"/>
+      <c r="H21" s="44" t="n"/>
+      <c r="I21" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" s="46" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L21" s="46" t="n">
+        <v>298.4</v>
+      </c>
+      <c r="M21" s="46" t="n">
+        <v>319.2</v>
+      </c>
+      <c r="N21" s="47" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.5" r="22">
+      <c r="A22" s="199" t="n"/>
+      <c r="B22" s="168" t="inlineStr">
+        <is>
+          <t>Еквівалент какао масла ”Illexao CB 50”, AAK Швеція, уп.25кг</t>
+        </is>
+      </c>
+      <c r="C22" s="172" t="n"/>
+      <c r="D22" s="172" t="n"/>
+      <c r="E22" s="172" t="n"/>
+      <c r="F22" s="172" t="n"/>
+      <c r="G22" s="172" t="n"/>
+      <c r="H22" s="173" t="n"/>
+      <c r="I22" s="174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="175" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K22" s="162" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L22" s="175" t="n">
+        <v>192.095</v>
+      </c>
+      <c r="M22" s="175" t="n">
+        <v>205.485</v>
+      </c>
+      <c r="N22" s="164" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="22.5" r="23" s="156">
+      <c r="A23" s="200" t="n"/>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>Еквівалент какао масла ”Illexao CB 70”, AAK Швеція, уп.25кг</t>
+        </is>
+      </c>
+      <c r="C23" s="39" t="n"/>
+      <c r="D23" s="39" t="n"/>
+      <c r="E23" s="39" t="n"/>
+      <c r="F23" s="39" t="n"/>
+      <c r="G23" s="39" t="n"/>
+      <c r="H23" s="40" t="n"/>
+      <c r="I23" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="46" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="47" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.5" r="24">
+      <c r="A24" s="199" t="n"/>
+      <c r="B24" s="168" t="inlineStr">
+        <is>
+          <t>Раф. Кокосова олія "RNCO" , PVO, Малайзия, 20 кг уп</t>
+        </is>
+      </c>
+      <c r="C24" s="168" t="n"/>
+      <c r="D24" s="168" t="n"/>
+      <c r="E24" s="168" t="n"/>
+      <c r="F24" s="168" t="n"/>
+      <c r="G24" s="168" t="n"/>
+      <c r="H24" s="169" t="n"/>
+      <c r="I24" s="161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K24" s="162" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L24" s="162" t="n">
+        <v>89.52</v>
+      </c>
+      <c r="M24" s="163" t="n">
+        <v>95.75999999999999</v>
+      </c>
+      <c r="N24" s="164" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="22.5" r="25" s="156">
+      <c r="A25" s="200" t="n"/>
+      <c r="B25" s="191" t="inlineStr">
+        <is>
+          <t>Какао-терте , PLOT, уп.25кг,</t>
+        </is>
+      </c>
+      <c r="C25" s="39" t="n"/>
+      <c r="D25" s="39" t="n"/>
+      <c r="E25" s="39" t="n"/>
+      <c r="F25" s="39" t="n"/>
+      <c r="G25" s="39" t="n"/>
+      <c r="H25" s="40" t="n"/>
+      <c r="I25" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K25" s="181" t="inlineStr">
+        <is>
+          <t>EVRO</t>
+        </is>
+      </c>
+      <c r="L25" s="33" t="n">
+        <v>227.13</v>
+      </c>
+      <c r="M25" s="36" t="n">
+        <v>230.52</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.5" r="26">
+      <c r="A26" s="199" t="n"/>
+      <c r="B26" s="168" t="inlineStr">
+        <is>
+          <t>Лаурин.замін.какао масла(CBS)”STAROIL”PVO,Малайзія, уп.20кг</t>
+        </is>
+      </c>
+      <c r="C26" s="190" t="n"/>
+      <c r="D26" s="168" t="n"/>
+      <c r="E26" s="168" t="n"/>
+      <c r="F26" s="168" t="n"/>
+      <c r="G26" s="168" t="n"/>
+      <c r="H26" s="169" t="n"/>
+      <c r="I26" s="161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="162" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K26" s="162" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L26" s="162" t="n">
+        <v>99.964</v>
+      </c>
+      <c r="M26" s="163" t="n">
+        <v>106.932</v>
+      </c>
+      <c r="N26" s="164" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="22.5" r="27" s="156">
+      <c r="A27" s="200" t="n"/>
+      <c r="B27" s="191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Замін. Молочного жиру "MRF 2932 , PVO, Малайзия. </t>
+        </is>
+      </c>
+      <c r="C27" s="157" t="n"/>
+      <c r="D27" s="157" t="n"/>
+      <c r="E27" s="157" t="n"/>
+      <c r="F27" s="157" t="n"/>
+      <c r="G27" s="157" t="n"/>
+      <c r="H27" s="158" t="n"/>
+      <c r="I27" s="193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K27" s="46" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L27" s="194" t="n">
+        <v>78.33</v>
+      </c>
+      <c r="M27" s="195" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="N27" s="196" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.5" r="28">
+      <c r="A28" s="202" t="n"/>
+      <c r="B28" s="170" t="inlineStr">
+        <is>
+          <t>Лаурин.замін.какао масла(CBS)CEBES  AKK  , уп.20кг</t>
+        </is>
+      </c>
+      <c r="C28" s="167" t="n"/>
+      <c r="D28" s="168" t="n"/>
+      <c r="E28" s="168" t="n"/>
+      <c r="F28" s="168" t="n"/>
+      <c r="G28" s="168" t="n"/>
+      <c r="H28" s="169" t="n"/>
+      <c r="I28" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="162" t="inlineStr">
+        <is>
+          <t>DOLLAR</t>
+        </is>
+      </c>
+      <c r="L28" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="164" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="22.5" r="29" s="155">
+      <c r="A29" s="198" t="n"/>
+      <c r="B29" s="37" t="n"/>
+      <c r="C29" s="178" t="n"/>
+      <c r="H29" s="179" t="n"/>
+      <c r="I29" s="180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="181" t="inlineStr">
         <is>
           <t>evro</t>
         </is>
       </c>
-      <c r="L19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="49" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.5" r="20">
-      <c r="A20" s="206" t="n"/>
-      <c r="B20" s="198" t="inlineStr">
-        <is>
-          <t>Какао масло дез,Cargill , уп.25кг</t>
-        </is>
-      </c>
-      <c r="C20" s="175" t="n"/>
-      <c r="D20" s="175" t="n"/>
-      <c r="E20" s="175" t="n"/>
-      <c r="F20" s="175" t="n"/>
-      <c r="G20" s="175" t="n"/>
-      <c r="H20" s="176" t="n"/>
-      <c r="I20" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="164" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L20" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="167" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="21" s="158">
-      <c r="A21" s="207" t="n"/>
-      <c r="B21" s="45" t="inlineStr">
-        <is>
-          <t>Какао масло нат, дез,JB, Малайзія, уп.25кг</t>
-        </is>
-      </c>
-      <c r="C21" s="45" t="n"/>
-      <c r="D21" s="45" t="n"/>
-      <c r="E21" s="45" t="n"/>
-      <c r="F21" s="45" t="n"/>
-      <c r="G21" s="45" t="n"/>
-      <c r="H21" s="46" t="n"/>
-      <c r="I21" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="48" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" s="48" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L21" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="49" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.5" r="22">
-      <c r="A22" s="206" t="n"/>
-      <c r="B22" s="171" t="inlineStr">
-        <is>
-          <t>Еквівалент какао масла ”Illexao CB 50”, AAK Швеція, уп.25кг</t>
-        </is>
-      </c>
-      <c r="C22" s="175" t="n"/>
-      <c r="D22" s="175" t="n"/>
-      <c r="E22" s="175" t="n"/>
-      <c r="F22" s="175" t="n"/>
-      <c r="G22" s="175" t="n"/>
-      <c r="H22" s="176" t="n"/>
-      <c r="I22" s="177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="178" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K22" s="178" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L22" s="178" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="178" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="167" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="23" s="158">
-      <c r="A23" s="207" t="n"/>
-      <c r="B23" s="41" t="inlineStr">
-        <is>
-          <t>Еквівалент какао масла ”Illexao CB 70”, AAK Швеція, уп.25кг</t>
-        </is>
-      </c>
-      <c r="C23" s="41" t="n"/>
-      <c r="D23" s="41" t="n"/>
-      <c r="E23" s="41" t="n"/>
-      <c r="F23" s="41" t="n"/>
-      <c r="G23" s="41" t="n"/>
-      <c r="H23" s="42" t="n"/>
-      <c r="I23" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="33" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="49" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.5" r="24">
-      <c r="A24" s="206" t="n"/>
-      <c r="B24" s="171" t="inlineStr">
-        <is>
-          <t>Раф. Кокосова олія "RNCO" , PVO, Малайзия, 20 кг уп</t>
-        </is>
-      </c>
-      <c r="C24" s="171" t="n"/>
-      <c r="D24" s="171" t="n"/>
-      <c r="E24" s="171" t="n"/>
-      <c r="F24" s="171" t="n"/>
-      <c r="G24" s="171" t="n"/>
-      <c r="H24" s="172" t="n"/>
-      <c r="I24" s="163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="164" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K24" s="164" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L24" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="167" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="25" s="158">
-      <c r="A25" s="207" t="n"/>
-      <c r="B25" s="197" t="inlineStr">
-        <is>
-          <t>Какао-терте , PLOT, уп.25кг,</t>
-        </is>
-      </c>
-      <c r="C25" s="41" t="n"/>
-      <c r="D25" s="41" t="n"/>
-      <c r="E25" s="41" t="n"/>
-      <c r="F25" s="41" t="n"/>
-      <c r="G25" s="41" t="n"/>
-      <c r="H25" s="42" t="n"/>
-      <c r="I25" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="33" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="K25" s="33" t="inlineStr">
+      <c r="L29" s="181" t="n"/>
+      <c r="M29" s="182" t="n"/>
+      <c r="N29" s="183" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.5" r="30">
+      <c r="A30" s="199" t="n"/>
+      <c r="B30" s="165" t="n"/>
+      <c r="C30" s="176" t="n"/>
+      <c r="D30" s="159" t="n"/>
+      <c r="E30" s="159" t="n"/>
+      <c r="F30" s="159" t="n"/>
+      <c r="G30" s="159" t="n"/>
+      <c r="H30" s="160" t="n"/>
+      <c r="I30" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="162" t="inlineStr">
         <is>
           <t>evro</t>
         </is>
       </c>
-      <c r="L25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="49" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.5" r="26">
-      <c r="A26" s="206" t="n"/>
-      <c r="B26" s="171" t="inlineStr">
-        <is>
-          <t>Лаурин.замін.какао масла(CBS)”STAROIL”PVO,Малайзія, уп.20кг</t>
-        </is>
-      </c>
-      <c r="C26" s="196" t="n"/>
-      <c r="D26" s="171" t="n"/>
-      <c r="E26" s="171" t="n"/>
-      <c r="F26" s="171" t="n"/>
-      <c r="G26" s="171" t="n"/>
-      <c r="H26" s="172" t="n"/>
-      <c r="I26" s="163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="164" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K26" s="164" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L26" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="167" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="27" s="158">
-      <c r="A27" s="207" t="n"/>
-      <c r="B27" s="197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Замін. Молочного жиру "MRF 2932 , PVO, Малайзия. </t>
-        </is>
-      </c>
-      <c r="C27" s="159" t="n"/>
-      <c r="D27" s="159" t="n"/>
-      <c r="E27" s="159" t="n"/>
-      <c r="F27" s="159" t="n"/>
-      <c r="G27" s="159" t="n"/>
-      <c r="H27" s="160" t="n"/>
-      <c r="I27" s="199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="200" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K27" s="200" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L27" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="201" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="202" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="202" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="203" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.5" r="28">
-      <c r="A28" s="209" t="n"/>
-      <c r="B28" s="173" t="inlineStr">
-        <is>
-          <t>Лаурин.замін.какао масла(CBS)CEBES  AKK  , уп.20кг</t>
-        </is>
-      </c>
-      <c r="C28" s="170" t="n"/>
-      <c r="D28" s="171" t="n"/>
-      <c r="E28" s="171" t="n"/>
-      <c r="F28" s="171" t="n"/>
-      <c r="G28" s="171" t="n"/>
-      <c r="H28" s="172" t="n"/>
-      <c r="I28" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="164" t="inlineStr">
-        <is>
-          <t>dolar</t>
-        </is>
-      </c>
-      <c r="L28" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="167" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="29" s="157">
-      <c r="A29" s="205" t="n"/>
-      <c r="B29" s="39" t="n"/>
-      <c r="C29" s="181" t="n"/>
-      <c r="H29" s="182" t="n"/>
-      <c r="I29" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="184" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L29" s="184" t="n"/>
-      <c r="M29" s="185" t="n"/>
-      <c r="N29" s="186" t="n"/>
-      <c r="O29" s="185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="P29" s="187" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.5" r="30">
-      <c r="A30" s="206" t="n"/>
-      <c r="B30" s="168" t="n"/>
-      <c r="C30" s="179" t="n"/>
-      <c r="D30" s="161" t="n"/>
-      <c r="E30" s="161" t="n"/>
-      <c r="F30" s="161" t="n"/>
-      <c r="G30" s="161" t="n"/>
-      <c r="H30" s="162" t="n"/>
-      <c r="I30" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="164" t="inlineStr">
-        <is>
-          <t>evro</t>
-        </is>
-      </c>
-      <c r="L30" s="164" t="n"/>
-      <c r="M30" s="165" t="n"/>
-      <c r="N30" s="165" t="n"/>
-      <c r="O30" s="166" t="n"/>
-      <c r="P30" s="167" t="n">
+      <c r="L30" s="162" t="n"/>
+      <c r="M30" s="163" t="n"/>
+      <c r="N30" s="164" t="n">
         <v>23</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="31" s="158">
-      <c r="A31" s="207" t="n"/>
-      <c r="B31" s="39" t="n"/>
-      <c r="C31" s="39" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="31" s="156">
+      <c r="A31" s="200" t="n"/>
+      <c r="B31" s="37" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
       <c r="E31" s="34" t="n"/>
       <c r="F31" s="34" t="n"/>
@@ -4042,49 +3862,45 @@
       </c>
       <c r="L31" s="33" t="n"/>
       <c r="M31" s="36" t="n"/>
-      <c r="N31" s="37" t="n"/>
-      <c r="O31" s="38" t="n"/>
-      <c r="P31" s="49" t="n">
+      <c r="N31" s="47" t="n">
         <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="32">
-      <c r="A32" s="206" t="n"/>
-      <c r="B32" s="168" t="n"/>
-      <c r="C32" s="194" t="n"/>
-      <c r="D32" s="168" t="n"/>
-      <c r="E32" s="168" t="n"/>
-      <c r="F32" s="168" t="n"/>
-      <c r="G32" s="168" t="n"/>
-      <c r="H32" s="169" t="n"/>
-      <c r="I32" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="164" t="inlineStr">
+      <c r="A32" s="199" t="n"/>
+      <c r="B32" s="165" t="n"/>
+      <c r="C32" s="188" t="n"/>
+      <c r="D32" s="165" t="n"/>
+      <c r="E32" s="165" t="n"/>
+      <c r="F32" s="165" t="n"/>
+      <c r="G32" s="165" t="n"/>
+      <c r="H32" s="166" t="n"/>
+      <c r="I32" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="162" t="inlineStr">
         <is>
           <t>evro</t>
         </is>
       </c>
-      <c r="L32" s="164" t="n"/>
-      <c r="M32" s="165" t="n"/>
-      <c r="N32" s="166" t="n"/>
-      <c r="O32" s="166" t="n"/>
-      <c r="P32" s="167" t="n">
+      <c r="L32" s="162" t="n"/>
+      <c r="M32" s="163" t="n"/>
+      <c r="N32" s="164" t="n">
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="33" s="158">
-      <c r="A33" s="207" t="n"/>
-      <c r="B33" s="39" t="n"/>
-      <c r="C33" s="39" t="n"/>
-      <c r="D33" s="39" t="n"/>
-      <c r="E33" s="39" t="n"/>
-      <c r="F33" s="39" t="n"/>
-      <c r="G33" s="39" t="n"/>
-      <c r="H33" s="40" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="33" s="156">
+      <c r="A33" s="200" t="n"/>
+      <c r="B33" s="37" t="n"/>
+      <c r="C33" s="37" t="n"/>
+      <c r="D33" s="37" t="n"/>
+      <c r="E33" s="37" t="n"/>
+      <c r="F33" s="37" t="n"/>
+      <c r="G33" s="37" t="n"/>
+      <c r="H33" s="38" t="n"/>
       <c r="I33" s="32" t="n">
         <v>0</v>
       </c>
@@ -4098,49 +3914,45 @@
       </c>
       <c r="L33" s="33" t="n"/>
       <c r="M33" s="36" t="n"/>
-      <c r="N33" s="38" t="n"/>
-      <c r="O33" s="38" t="n"/>
-      <c r="P33" s="49" t="n">
+      <c r="N33" s="47" t="n">
         <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="34">
-      <c r="A34" s="206" t="n"/>
-      <c r="B34" s="168" t="n"/>
-      <c r="C34" s="179" t="n"/>
-      <c r="D34" s="168" t="n"/>
-      <c r="E34" s="168" t="n"/>
-      <c r="F34" s="168" t="n"/>
-      <c r="G34" s="168" t="n"/>
-      <c r="H34" s="169" t="n"/>
-      <c r="I34" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="164" t="inlineStr">
+      <c r="A34" s="199" t="n"/>
+      <c r="B34" s="165" t="n"/>
+      <c r="C34" s="176" t="n"/>
+      <c r="D34" s="165" t="n"/>
+      <c r="E34" s="165" t="n"/>
+      <c r="F34" s="165" t="n"/>
+      <c r="G34" s="165" t="n"/>
+      <c r="H34" s="166" t="n"/>
+      <c r="I34" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="162" t="inlineStr">
         <is>
           <t>evro</t>
         </is>
       </c>
-      <c r="L34" s="164" t="n"/>
-      <c r="M34" s="165" t="n"/>
-      <c r="N34" s="170" t="n"/>
-      <c r="O34" s="166" t="n"/>
-      <c r="P34" s="167" t="n">
+      <c r="L34" s="162" t="n"/>
+      <c r="M34" s="163" t="n"/>
+      <c r="N34" s="164" t="n">
         <v>27</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="35" s="158">
-      <c r="A35" s="207" t="n"/>
-      <c r="B35" s="39" t="n"/>
-      <c r="C35" s="195" t="n"/>
-      <c r="D35" s="39" t="n"/>
-      <c r="E35" s="39" t="n"/>
-      <c r="F35" s="39" t="n"/>
-      <c r="G35" s="39" t="n"/>
-      <c r="H35" s="40" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="35" s="156">
+      <c r="A35" s="200" t="n"/>
+      <c r="B35" s="37" t="n"/>
+      <c r="C35" s="189" t="n"/>
+      <c r="D35" s="37" t="n"/>
+      <c r="E35" s="37" t="n"/>
+      <c r="F35" s="37" t="n"/>
+      <c r="G35" s="37" t="n"/>
+      <c r="H35" s="38" t="n"/>
       <c r="I35" s="32" t="n">
         <v>0</v>
       </c>
@@ -4154,49 +3966,45 @@
       </c>
       <c r="L35" s="33" t="n"/>
       <c r="M35" s="36" t="n"/>
-      <c r="N35" s="37" t="n"/>
-      <c r="O35" s="38" t="n"/>
-      <c r="P35" s="49" t="n">
+      <c r="N35" s="47" t="n">
         <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="36">
-      <c r="A36" s="206" t="n"/>
-      <c r="B36" s="196" t="n"/>
-      <c r="C36" s="171" t="n"/>
-      <c r="D36" s="171" t="n"/>
-      <c r="E36" s="171" t="n"/>
-      <c r="F36" s="171" t="n"/>
-      <c r="G36" s="171" t="n"/>
-      <c r="H36" s="172" t="n"/>
-      <c r="I36" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="164" t="inlineStr">
+      <c r="A36" s="199" t="n"/>
+      <c r="B36" s="190" t="n"/>
+      <c r="C36" s="168" t="n"/>
+      <c r="D36" s="168" t="n"/>
+      <c r="E36" s="168" t="n"/>
+      <c r="F36" s="168" t="n"/>
+      <c r="G36" s="168" t="n"/>
+      <c r="H36" s="169" t="n"/>
+      <c r="I36" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="162" t="inlineStr">
         <is>
           <t>evro</t>
         </is>
       </c>
-      <c r="L36" s="164" t="n"/>
-      <c r="M36" s="165" t="n"/>
-      <c r="N36" s="166" t="n"/>
-      <c r="O36" s="166" t="n"/>
-      <c r="P36" s="167" t="n">
+      <c r="L36" s="162" t="n"/>
+      <c r="M36" s="163" t="n"/>
+      <c r="N36" s="164" t="n">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="37" s="158">
-      <c r="A37" s="208" t="n"/>
-      <c r="B37" s="159" t="n"/>
-      <c r="C37" s="41" t="n"/>
-      <c r="D37" s="41" t="n"/>
-      <c r="E37" s="41" t="n"/>
-      <c r="F37" s="41" t="n"/>
-      <c r="G37" s="41" t="n"/>
-      <c r="H37" s="42" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="37" s="156">
+      <c r="A37" s="201" t="n"/>
+      <c r="B37" s="157" t="n"/>
+      <c r="C37" s="39" t="n"/>
+      <c r="D37" s="39" t="n"/>
+      <c r="E37" s="39" t="n"/>
+      <c r="F37" s="39" t="n"/>
+      <c r="G37" s="39" t="n"/>
+      <c r="H37" s="40" t="n"/>
       <c r="I37" s="32" t="n">
         <v>0</v>
       </c>
@@ -4210,49 +4018,45 @@
       </c>
       <c r="L37" s="33" t="n"/>
       <c r="M37" s="36" t="n"/>
-      <c r="N37" s="37" t="n"/>
-      <c r="O37" s="38" t="n"/>
-      <c r="P37" s="49" t="n">
+      <c r="N37" s="47" t="n">
         <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="38">
-      <c r="A38" s="206" t="n"/>
-      <c r="B38" s="196" t="n"/>
-      <c r="C38" s="171" t="n"/>
-      <c r="D38" s="171" t="n"/>
-      <c r="E38" s="171" t="n"/>
-      <c r="F38" s="171" t="n"/>
-      <c r="G38" s="171" t="n"/>
-      <c r="H38" s="172" t="n"/>
-      <c r="I38" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="164" t="inlineStr">
+      <c r="A38" s="199" t="n"/>
+      <c r="B38" s="190" t="n"/>
+      <c r="C38" s="168" t="n"/>
+      <c r="D38" s="168" t="n"/>
+      <c r="E38" s="168" t="n"/>
+      <c r="F38" s="168" t="n"/>
+      <c r="G38" s="168" t="n"/>
+      <c r="H38" s="169" t="n"/>
+      <c r="I38" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="162" t="inlineStr">
         <is>
           <t>evro</t>
         </is>
       </c>
-      <c r="L38" s="164" t="n"/>
-      <c r="M38" s="165" t="n"/>
-      <c r="N38" s="170" t="n"/>
-      <c r="O38" s="166" t="n"/>
-      <c r="P38" s="167" t="n">
+      <c r="L38" s="162" t="n"/>
+      <c r="M38" s="163" t="n"/>
+      <c r="N38" s="164" t="n">
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="39" s="158">
-      <c r="A39" s="207" t="n"/>
-      <c r="B39" s="197" t="n"/>
-      <c r="C39" s="41" t="n"/>
-      <c r="D39" s="41" t="n"/>
-      <c r="E39" s="41" t="n"/>
-      <c r="F39" s="41" t="n"/>
-      <c r="G39" s="41" t="n"/>
-      <c r="H39" s="42" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="39" s="156">
+      <c r="A39" s="200" t="n"/>
+      <c r="B39" s="191" t="n"/>
+      <c r="C39" s="39" t="n"/>
+      <c r="D39" s="39" t="n"/>
+      <c r="E39" s="39" t="n"/>
+      <c r="F39" s="39" t="n"/>
+      <c r="G39" s="39" t="n"/>
+      <c r="H39" s="40" t="n"/>
       <c r="I39" s="32" t="n">
         <v>0</v>
       </c>
@@ -4266,49 +4070,45 @@
       </c>
       <c r="L39" s="33" t="n"/>
       <c r="M39" s="36" t="n"/>
-      <c r="N39" s="38" t="n"/>
-      <c r="O39" s="38" t="n"/>
-      <c r="P39" s="49" t="n">
+      <c r="N39" s="47" t="n">
         <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="40">
-      <c r="A40" s="206" t="n"/>
-      <c r="B40" s="171" t="n"/>
-      <c r="C40" s="171" t="n"/>
-      <c r="D40" s="173" t="n"/>
-      <c r="E40" s="173" t="n"/>
-      <c r="F40" s="173" t="n"/>
-      <c r="G40" s="173" t="n"/>
-      <c r="H40" s="174" t="n"/>
-      <c r="I40" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="164" t="inlineStr">
+      <c r="A40" s="199" t="n"/>
+      <c r="B40" s="168" t="n"/>
+      <c r="C40" s="168" t="n"/>
+      <c r="D40" s="170" t="n"/>
+      <c r="E40" s="170" t="n"/>
+      <c r="F40" s="170" t="n"/>
+      <c r="G40" s="170" t="n"/>
+      <c r="H40" s="171" t="n"/>
+      <c r="I40" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="162" t="inlineStr">
         <is>
           <t>evro</t>
         </is>
       </c>
-      <c r="L40" s="164" t="n"/>
-      <c r="M40" s="165" t="n"/>
-      <c r="N40" s="170" t="n"/>
-      <c r="O40" s="166" t="n"/>
-      <c r="P40" s="167" t="n">
+      <c r="L40" s="162" t="n"/>
+      <c r="M40" s="163" t="n"/>
+      <c r="N40" s="164" t="n">
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="41" s="158">
-      <c r="A41" s="208" t="n"/>
-      <c r="B41" s="180" t="n"/>
-      <c r="C41" s="43" t="n"/>
-      <c r="D41" s="43" t="n"/>
-      <c r="E41" s="43" t="n"/>
-      <c r="F41" s="43" t="n"/>
-      <c r="G41" s="43" t="n"/>
-      <c r="H41" s="44" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="41" s="156">
+      <c r="A41" s="201" t="n"/>
+      <c r="B41" s="177" t="n"/>
+      <c r="C41" s="41" t="n"/>
+      <c r="D41" s="41" t="n"/>
+      <c r="E41" s="41" t="n"/>
+      <c r="F41" s="41" t="n"/>
+      <c r="G41" s="41" t="n"/>
+      <c r="H41" s="42" t="n"/>
       <c r="I41" s="32" t="n">
         <v>0</v>
       </c>
@@ -4322,105 +4122,97 @@
       </c>
       <c r="L41" s="33" t="n"/>
       <c r="M41" s="36" t="n"/>
-      <c r="N41" s="37" t="n"/>
-      <c r="O41" s="38" t="n"/>
-      <c r="P41" s="49" t="n">
+      <c r="N41" s="47" t="n">
         <v>34</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="42">
-      <c r="A42" s="206" t="n"/>
-      <c r="B42" s="198" t="n"/>
-      <c r="C42" s="175" t="n"/>
-      <c r="D42" s="175" t="n"/>
-      <c r="E42" s="175" t="n"/>
-      <c r="F42" s="175" t="n"/>
-      <c r="G42" s="175" t="n"/>
-      <c r="H42" s="176" t="n"/>
-      <c r="I42" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="164" t="inlineStr">
+      <c r="A42" s="199" t="n"/>
+      <c r="B42" s="192" t="n"/>
+      <c r="C42" s="172" t="n"/>
+      <c r="D42" s="172" t="n"/>
+      <c r="E42" s="172" t="n"/>
+      <c r="F42" s="172" t="n"/>
+      <c r="G42" s="172" t="n"/>
+      <c r="H42" s="173" t="n"/>
+      <c r="I42" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="162" t="inlineStr">
         <is>
           <t>dolar</t>
         </is>
       </c>
-      <c r="L42" s="164" t="n"/>
-      <c r="M42" s="165" t="n"/>
-      <c r="N42" s="166" t="n"/>
-      <c r="O42" s="166" t="n"/>
-      <c r="P42" s="167" t="n">
+      <c r="L42" s="162" t="n"/>
+      <c r="M42" s="163" t="n"/>
+      <c r="N42" s="164" t="n">
         <v>35</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="43" s="158">
-      <c r="A43" s="207" t="n"/>
-      <c r="B43" s="45" t="n"/>
-      <c r="C43" s="45" t="n"/>
-      <c r="D43" s="45" t="n"/>
-      <c r="E43" s="45" t="n"/>
-      <c r="F43" s="45" t="n"/>
-      <c r="G43" s="45" t="n"/>
-      <c r="H43" s="46" t="n"/>
-      <c r="I43" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="48" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="43" s="156">
+      <c r="A43" s="200" t="n"/>
+      <c r="B43" s="43" t="n"/>
+      <c r="C43" s="43" t="n"/>
+      <c r="D43" s="43" t="n"/>
+      <c r="E43" s="43" t="n"/>
+      <c r="F43" s="43" t="n"/>
+      <c r="G43" s="43" t="n"/>
+      <c r="H43" s="44" t="n"/>
+      <c r="I43" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="46" t="inlineStr">
         <is>
           <t>dolar</t>
         </is>
       </c>
-      <c r="L43" s="48" t="n"/>
-      <c r="M43" s="48" t="n"/>
-      <c r="N43" s="37" t="n"/>
-      <c r="O43" s="38" t="n"/>
-      <c r="P43" s="49" t="n">
+      <c r="L43" s="46" t="n"/>
+      <c r="M43" s="46" t="n"/>
+      <c r="N43" s="47" t="n">
         <v>36</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="44">
-      <c r="A44" s="206" t="n"/>
-      <c r="B44" s="171" t="n"/>
-      <c r="C44" s="175" t="n"/>
-      <c r="D44" s="175" t="n"/>
-      <c r="E44" s="175" t="n"/>
-      <c r="F44" s="175" t="n"/>
-      <c r="G44" s="175" t="n"/>
-      <c r="H44" s="176" t="n"/>
-      <c r="I44" s="177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="178" t="inlineStr">
+      <c r="A44" s="199" t="n"/>
+      <c r="B44" s="168" t="n"/>
+      <c r="C44" s="172" t="n"/>
+      <c r="D44" s="172" t="n"/>
+      <c r="E44" s="172" t="n"/>
+      <c r="F44" s="172" t="n"/>
+      <c r="G44" s="172" t="n"/>
+      <c r="H44" s="173" t="n"/>
+      <c r="I44" s="174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="175" t="inlineStr">
         <is>
           <t>dolar</t>
         </is>
       </c>
-      <c r="L44" s="178" t="n"/>
-      <c r="M44" s="178" t="n"/>
-      <c r="N44" s="170" t="n"/>
-      <c r="O44" s="166" t="n"/>
-      <c r="P44" s="167" t="n">
+      <c r="L44" s="175" t="n"/>
+      <c r="M44" s="175" t="n"/>
+      <c r="N44" s="164" t="n">
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="45" s="158">
-      <c r="A45" s="207" t="n"/>
-      <c r="B45" s="41" t="n"/>
-      <c r="C45" s="41" t="n"/>
-      <c r="D45" s="41" t="n"/>
-      <c r="E45" s="41" t="n"/>
-      <c r="F45" s="41" t="n"/>
-      <c r="G45" s="41" t="n"/>
-      <c r="H45" s="42" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="45" s="156">
+      <c r="A45" s="200" t="n"/>
+      <c r="B45" s="39" t="n"/>
+      <c r="C45" s="39" t="n"/>
+      <c r="D45" s="39" t="n"/>
+      <c r="E45" s="39" t="n"/>
+      <c r="F45" s="39" t="n"/>
+      <c r="G45" s="39" t="n"/>
+      <c r="H45" s="40" t="n"/>
       <c r="I45" s="32" t="n">
         <v>0</v>
       </c>
@@ -4434,49 +4226,45 @@
       </c>
       <c r="L45" s="33" t="n"/>
       <c r="M45" s="36" t="n"/>
-      <c r="N45" s="38" t="n"/>
-      <c r="O45" s="38" t="n"/>
-      <c r="P45" s="49" t="n">
+      <c r="N45" s="47" t="n">
         <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="46">
-      <c r="A46" s="206" t="n"/>
-      <c r="B46" s="171" t="n"/>
-      <c r="C46" s="171" t="n"/>
-      <c r="D46" s="171" t="n"/>
-      <c r="E46" s="171" t="n"/>
-      <c r="F46" s="171" t="n"/>
-      <c r="G46" s="171" t="n"/>
-      <c r="H46" s="172" t="n"/>
-      <c r="I46" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="164" t="inlineStr">
+      <c r="A46" s="199" t="n"/>
+      <c r="B46" s="168" t="n"/>
+      <c r="C46" s="168" t="n"/>
+      <c r="D46" s="168" t="n"/>
+      <c r="E46" s="168" t="n"/>
+      <c r="F46" s="168" t="n"/>
+      <c r="G46" s="168" t="n"/>
+      <c r="H46" s="169" t="n"/>
+      <c r="I46" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="162" t="inlineStr">
         <is>
           <t>dolar</t>
         </is>
       </c>
-      <c r="L46" s="164" t="n"/>
-      <c r="M46" s="165" t="n"/>
-      <c r="N46" s="166" t="n"/>
-      <c r="O46" s="166" t="n"/>
-      <c r="P46" s="167" t="n">
+      <c r="L46" s="162" t="n"/>
+      <c r="M46" s="163" t="n"/>
+      <c r="N46" s="164" t="n">
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="47" s="158">
-      <c r="A47" s="207" t="n"/>
-      <c r="B47" s="197" t="n"/>
-      <c r="C47" s="41" t="n"/>
-      <c r="D47" s="41" t="n"/>
-      <c r="E47" s="41" t="n"/>
-      <c r="F47" s="41" t="n"/>
-      <c r="G47" s="41" t="n"/>
-      <c r="H47" s="42" t="n"/>
+    <row customFormat="1" customHeight="1" ht="22.5" r="47" s="156">
+      <c r="A47" s="200" t="n"/>
+      <c r="B47" s="191" t="n"/>
+      <c r="C47" s="39" t="n"/>
+      <c r="D47" s="39" t="n"/>
+      <c r="E47" s="39" t="n"/>
+      <c r="F47" s="39" t="n"/>
+      <c r="G47" s="39" t="n"/>
+      <c r="H47" s="40" t="n"/>
       <c r="I47" s="32" t="n">
         <v>0</v>
       </c>
@@ -4490,800 +4278,792 @@
       </c>
       <c r="L47" s="33" t="n"/>
       <c r="M47" s="36" t="n"/>
-      <c r="N47" s="38" t="n"/>
-      <c r="O47" s="38" t="n"/>
-      <c r="P47" s="49" t="n">
+      <c r="N47" s="47" t="n">
         <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="48">
-      <c r="A48" s="206" t="n"/>
-      <c r="B48" s="171" t="n"/>
-      <c r="C48" s="196" t="n"/>
-      <c r="D48" s="171" t="n"/>
-      <c r="E48" s="171" t="n"/>
-      <c r="F48" s="171" t="n"/>
-      <c r="G48" s="171" t="n"/>
-      <c r="H48" s="172" t="n"/>
-      <c r="I48" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="164" t="inlineStr">
+      <c r="A48" s="199" t="n"/>
+      <c r="B48" s="168" t="n"/>
+      <c r="C48" s="190" t="n"/>
+      <c r="D48" s="168" t="n"/>
+      <c r="E48" s="168" t="n"/>
+      <c r="F48" s="168" t="n"/>
+      <c r="G48" s="168" t="n"/>
+      <c r="H48" s="169" t="n"/>
+      <c r="I48" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="162" t="inlineStr">
         <is>
           <t>dolar</t>
         </is>
       </c>
-      <c r="L48" s="164" t="n"/>
-      <c r="M48" s="165" t="n"/>
-      <c r="N48" s="166" t="n"/>
-      <c r="O48" s="166" t="n"/>
-      <c r="P48" s="167" t="n">
+      <c r="L48" s="162" t="n"/>
+      <c r="M48" s="163" t="n"/>
+      <c r="N48" s="164" t="n">
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="49" s="158">
-      <c r="A49" s="207" t="n"/>
-      <c r="B49" s="197" t="n"/>
-      <c r="C49" s="159" t="n"/>
-      <c r="D49" s="159" t="n"/>
-      <c r="E49" s="159" t="n"/>
-      <c r="F49" s="159" t="n"/>
-      <c r="G49" s="159" t="n"/>
-      <c r="H49" s="160" t="n"/>
-      <c r="I49" s="199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="200" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="22.5" r="49" s="156">
+      <c r="A49" s="200" t="n"/>
+      <c r="B49" s="191" t="n"/>
+      <c r="C49" s="157" t="n"/>
+      <c r="D49" s="157" t="n"/>
+      <c r="E49" s="157" t="n"/>
+      <c r="F49" s="157" t="n"/>
+      <c r="G49" s="157" t="n"/>
+      <c r="H49" s="158" t="n"/>
+      <c r="I49" s="193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="194" t="inlineStr">
         <is>
           <t>dolar</t>
         </is>
       </c>
-      <c r="L49" s="200" t="n"/>
-      <c r="M49" s="201" t="n"/>
-      <c r="N49" s="202" t="n"/>
-      <c r="O49" s="202" t="n"/>
-      <c r="P49" s="203" t="n">
+      <c r="L49" s="194" t="n"/>
+      <c r="M49" s="195" t="n"/>
+      <c r="N49" s="196" t="n">
         <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="50">
-      <c r="A50" s="209" t="n"/>
-      <c r="B50" s="173" t="n"/>
-      <c r="C50" s="170" t="n"/>
-      <c r="D50" s="171" t="n"/>
-      <c r="E50" s="171" t="n"/>
-      <c r="F50" s="171" t="n"/>
-      <c r="G50" s="171" t="n"/>
-      <c r="H50" s="172" t="n"/>
-      <c r="I50" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="164" t="inlineStr">
+      <c r="A50" s="202" t="n"/>
+      <c r="B50" s="170" t="n"/>
+      <c r="C50" s="167" t="n"/>
+      <c r="D50" s="168" t="n"/>
+      <c r="E50" s="168" t="n"/>
+      <c r="F50" s="168" t="n"/>
+      <c r="G50" s="168" t="n"/>
+      <c r="H50" s="169" t="n"/>
+      <c r="I50" s="161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="162" t="inlineStr">
         <is>
           <t>dolar</t>
         </is>
       </c>
-      <c r="L50" s="164" t="n"/>
-      <c r="M50" s="165" t="n"/>
-      <c r="N50" s="170" t="n"/>
-      <c r="O50" s="166" t="n"/>
-      <c r="P50" s="167" t="n">
+      <c r="L50" s="162" t="n"/>
+      <c r="M50" s="163" t="n"/>
+      <c r="N50" s="164" t="n">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" r="51" s="158">
-      <c r="A51" s="210" t="n"/>
+    <row customFormat="1" r="51" s="156">
+      <c r="A51" s="203" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="110" t="n"/>
-    </row>
-    <row customFormat="1" r="53" s="158">
-      <c r="A53" s="210" t="n"/>
+      <c r="A52" s="108" t="n"/>
+    </row>
+    <row customFormat="1" r="53" s="156">
+      <c r="A53" s="203" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="110" t="n"/>
+      <c r="A54" s="108" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="110" t="n"/>
+      <c r="A55" s="108" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="110" t="n"/>
+      <c r="A56" s="108" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="110" t="n"/>
+      <c r="A57" s="108" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="110" t="n"/>
+      <c r="A58" s="108" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="110" t="n"/>
+      <c r="A59" s="108" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="110" t="n"/>
+      <c r="A60" s="108" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="110" t="n"/>
+      <c r="A61" s="108" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="110" t="n"/>
+      <c r="A62" s="108" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="110" t="n"/>
+      <c r="A63" s="108" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="110" t="n"/>
+      <c r="A64" s="108" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="110" t="n"/>
+      <c r="A65" s="108" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="110" t="n"/>
+      <c r="A66" s="108" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="110" t="n"/>
+      <c r="A67" s="108" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="110" t="n"/>
+      <c r="A68" s="108" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="110" t="n"/>
+      <c r="A69" s="108" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="110" t="n"/>
+      <c r="A70" s="108" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="110" t="n"/>
+      <c r="A71" s="108" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="110" t="n"/>
+      <c r="A72" s="108" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="110" t="n"/>
+      <c r="A73" s="108" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="110" t="n"/>
+      <c r="A74" s="108" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="110" t="n"/>
+      <c r="A75" s="108" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="110" t="n"/>
+      <c r="A76" s="108" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="110" t="n"/>
+      <c r="A77" s="108" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="110" t="n"/>
+      <c r="A78" s="108" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="110" t="n"/>
+      <c r="A79" s="108" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="110" t="n"/>
+      <c r="A80" s="108" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="110" t="n"/>
+      <c r="A81" s="108" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="110" t="n"/>
+      <c r="A82" s="108" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="110" t="n"/>
+      <c r="A83" s="108" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="110" t="n"/>
+      <c r="A84" s="108" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="110" t="n"/>
+      <c r="A85" s="108" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="110" t="n"/>
+      <c r="A86" s="108" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="110" t="n"/>
+      <c r="A87" s="108" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="110" t="n"/>
+      <c r="A88" s="108" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="110" t="n"/>
+      <c r="A89" s="108" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="110" t="n"/>
+      <c r="A90" s="108" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="110" t="n"/>
+      <c r="A91" s="108" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="110" t="n"/>
+      <c r="A92" s="108" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="110" t="n"/>
+      <c r="A93" s="108" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="110" t="n"/>
+      <c r="A94" s="108" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="110" t="n"/>
+      <c r="A95" s="108" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="110" t="n"/>
+      <c r="A96" s="108" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="110" t="n"/>
+      <c r="A97" s="108" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="110" t="n"/>
+      <c r="A98" s="108" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="110" t="n"/>
+      <c r="A99" s="108" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="110" t="n"/>
+      <c r="A100" s="108" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="110" t="n"/>
+      <c r="A101" s="108" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="110" t="n"/>
+      <c r="A102" s="108" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="110" t="n"/>
+      <c r="A103" s="108" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="110" t="n"/>
+      <c r="A104" s="108" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="110" t="n"/>
+      <c r="A105" s="108" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="110" t="n"/>
+      <c r="A106" s="108" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="110" t="n"/>
+      <c r="A107" s="108" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="110" t="n"/>
+      <c r="A108" s="108" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="110" t="n"/>
+      <c r="A109" s="108" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="110" t="n"/>
+      <c r="A110" s="108" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="110" t="n"/>
+      <c r="A111" s="108" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="110" t="n"/>
+      <c r="A112" s="108" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="110" t="n"/>
+      <c r="A113" s="108" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="110" t="n"/>
+      <c r="A114" s="108" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="110" t="n"/>
+      <c r="A115" s="108" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="110" t="n"/>
+      <c r="A116" s="108" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="110" t="n"/>
+      <c r="A117" s="108" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="110" t="n"/>
+      <c r="A118" s="108" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="110" t="n"/>
+      <c r="A119" s="108" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="110" t="n"/>
+      <c r="A120" s="108" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="110" t="n"/>
+      <c r="A121" s="108" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="110" t="n"/>
+      <c r="A122" s="108" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="110" t="n"/>
+      <c r="A123" s="108" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="110" t="n"/>
+      <c r="A124" s="108" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="110" t="n"/>
+      <c r="A125" s="108" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="110" t="n"/>
+      <c r="A126" s="108" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="110" t="n"/>
+      <c r="A127" s="108" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="110" t="n"/>
+      <c r="A128" s="108" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="110" t="n"/>
+      <c r="A129" s="108" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="110" t="n"/>
+      <c r="A130" s="108" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="110" t="n"/>
+      <c r="A131" s="108" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="110" t="n"/>
+      <c r="A132" s="108" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="110" t="n"/>
+      <c r="A133" s="108" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="110" t="n"/>
+      <c r="A134" s="108" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="110" t="n"/>
+      <c r="A135" s="108" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="110" t="n"/>
+      <c r="A136" s="108" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="110" t="n"/>
+      <c r="A137" s="108" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="110" t="n"/>
+      <c r="A138" s="108" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="110" t="n"/>
+      <c r="A139" s="108" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="110" t="n"/>
+      <c r="A140" s="108" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="110" t="n"/>
+      <c r="A141" s="108" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="110" t="n"/>
+      <c r="A142" s="108" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="110" t="n"/>
+      <c r="A143" s="108" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="110" t="n"/>
+      <c r="A144" s="108" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="110" t="n"/>
+      <c r="A145" s="108" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="110" t="n"/>
+      <c r="A146" s="108" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="110" t="n"/>
+      <c r="A147" s="108" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="110" t="n"/>
+      <c r="A148" s="108" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="110" t="n"/>
+      <c r="A149" s="108" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="110" t="n"/>
+      <c r="A150" s="108" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="110" t="n"/>
+      <c r="A151" s="108" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="110" t="n"/>
+      <c r="A152" s="108" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="110" t="n"/>
+      <c r="A153" s="108" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="110" t="n"/>
+      <c r="A154" s="108" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="110" t="n"/>
+      <c r="A155" s="108" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="110" t="n"/>
+      <c r="A156" s="108" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="110" t="n"/>
+      <c r="A157" s="108" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="110" t="n"/>
+      <c r="A158" s="108" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="110" t="n"/>
+      <c r="A159" s="108" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="110" t="n"/>
+      <c r="A160" s="108" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="110" t="n"/>
+      <c r="A161" s="108" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="110" t="n"/>
+      <c r="A162" s="108" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="110" t="n"/>
+      <c r="A163" s="108" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="110" t="n"/>
+      <c r="A164" s="108" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="110" t="n"/>
+      <c r="A165" s="108" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="110" t="n"/>
+      <c r="A166" s="108" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="110" t="n"/>
+      <c r="A167" s="108" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="110" t="n"/>
+      <c r="A168" s="108" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="110" t="n"/>
+      <c r="A169" s="108" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="110" t="n"/>
+      <c r="A170" s="108" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="110" t="n"/>
+      <c r="A171" s="108" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="110" t="n"/>
+      <c r="A172" s="108" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="110" t="n"/>
+      <c r="A173" s="108" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="110" t="n"/>
+      <c r="A174" s="108" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="110" t="n"/>
+      <c r="A175" s="108" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="110" t="n"/>
+      <c r="A176" s="108" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="110" t="n"/>
+      <c r="A177" s="108" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="110" t="n"/>
+      <c r="A178" s="108" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" s="110" t="n"/>
+      <c r="A179" s="108" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="110" t="n"/>
+      <c r="A180" s="108" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="110" t="n"/>
+      <c r="A181" s="108" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" s="110" t="n"/>
+      <c r="A182" s="108" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="110" t="n"/>
+      <c r="A183" s="108" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="110" t="n"/>
+      <c r="A184" s="108" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="110" t="n"/>
+      <c r="A185" s="108" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="110" t="n"/>
+      <c r="A186" s="108" t="n"/>
     </row>
     <row r="187">
-      <c r="A187" s="110" t="n"/>
+      <c r="A187" s="108" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" s="110" t="n"/>
+      <c r="A188" s="108" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="110" t="n"/>
+      <c r="A189" s="108" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="110" t="n"/>
+      <c r="A190" s="108" t="n"/>
     </row>
     <row r="191">
-      <c r="A191" s="110" t="n"/>
+      <c r="A191" s="108" t="n"/>
     </row>
     <row r="192">
-      <c r="A192" s="110" t="n"/>
+      <c r="A192" s="108" t="n"/>
     </row>
     <row r="193">
-      <c r="A193" s="110" t="n"/>
+      <c r="A193" s="108" t="n"/>
     </row>
     <row r="194">
-      <c r="A194" s="110" t="n"/>
+      <c r="A194" s="108" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" s="110" t="n"/>
+      <c r="A195" s="108" t="n"/>
     </row>
     <row r="196">
-      <c r="A196" s="110" t="n"/>
+      <c r="A196" s="108" t="n"/>
     </row>
     <row r="197">
-      <c r="A197" s="110" t="n"/>
+      <c r="A197" s="108" t="n"/>
     </row>
     <row r="198">
-      <c r="A198" s="110" t="n"/>
+      <c r="A198" s="108" t="n"/>
     </row>
     <row r="199">
-      <c r="A199" s="110" t="n"/>
+      <c r="A199" s="108" t="n"/>
     </row>
     <row r="200">
-      <c r="A200" s="110" t="n"/>
+      <c r="A200" s="108" t="n"/>
     </row>
     <row r="201">
-      <c r="A201" s="110" t="n"/>
+      <c r="A201" s="108" t="n"/>
     </row>
     <row r="202">
-      <c r="A202" s="110" t="n"/>
+      <c r="A202" s="108" t="n"/>
     </row>
     <row r="203">
-      <c r="A203" s="110" t="n"/>
+      <c r="A203" s="108" t="n"/>
     </row>
     <row r="204">
-      <c r="A204" s="110" t="n"/>
+      <c r="A204" s="108" t="n"/>
     </row>
     <row r="205">
-      <c r="A205" s="110" t="n"/>
+      <c r="A205" s="108" t="n"/>
     </row>
     <row r="206">
-      <c r="A206" s="110" t="n"/>
+      <c r="A206" s="108" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="110" t="n"/>
+      <c r="A207" s="108" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="110" t="n"/>
+      <c r="A208" s="108" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="110" t="n"/>
+      <c r="A209" s="108" t="n"/>
     </row>
     <row r="210">
-      <c r="A210" s="110" t="n"/>
+      <c r="A210" s="108" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" s="110" t="n"/>
+      <c r="A211" s="108" t="n"/>
     </row>
     <row r="212">
-      <c r="A212" s="110" t="n"/>
+      <c r="A212" s="108" t="n"/>
     </row>
     <row r="213">
-      <c r="A213" s="110" t="n"/>
+      <c r="A213" s="108" t="n"/>
     </row>
     <row r="214">
-      <c r="A214" s="110" t="n"/>
+      <c r="A214" s="108" t="n"/>
     </row>
     <row r="215">
-      <c r="A215" s="110" t="n"/>
+      <c r="A215" s="108" t="n"/>
     </row>
     <row r="216">
-      <c r="A216" s="110" t="n"/>
+      <c r="A216" s="108" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="110" t="n"/>
+      <c r="A217" s="108" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="110" t="n"/>
+      <c r="A218" s="108" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="110" t="n"/>
+      <c r="A219" s="108" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="110" t="n"/>
+      <c r="A220" s="108" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="110" t="n"/>
+      <c r="A221" s="108" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="110" t="n"/>
+      <c r="A222" s="108" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="110" t="n"/>
+      <c r="A223" s="108" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="110" t="n"/>
+      <c r="A224" s="108" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="110" t="n"/>
+      <c r="A225" s="108" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="110" t="n"/>
+      <c r="A226" s="108" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="110" t="n"/>
+      <c r="A227" s="108" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="110" t="n"/>
+      <c r="A228" s="108" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="110" t="n"/>
+      <c r="A229" s="108" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="110" t="n"/>
+      <c r="A230" s="108" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="110" t="n"/>
+      <c r="A231" s="108" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="110" t="n"/>
+      <c r="A232" s="108" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="110" t="n"/>
+      <c r="A233" s="108" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="110" t="n"/>
+      <c r="A234" s="108" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="110" t="n"/>
+      <c r="A235" s="108" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="110" t="n"/>
+      <c r="A236" s="108" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="110" t="n"/>
+      <c r="A237" s="108" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="110" t="n"/>
+      <c r="A238" s="108" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="110" t="n"/>
+      <c r="A239" s="108" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="110" t="n"/>
+      <c r="A240" s="108" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="110" t="n"/>
+      <c r="A241" s="108" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="110" t="n"/>
+      <c r="A242" s="108" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="110" t="n"/>
+      <c r="A243" s="108" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="110" t="n"/>
+      <c r="A244" s="108" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="110" t="n"/>
+      <c r="A245" s="108" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="110" t="n"/>
+      <c r="A246" s="108" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="110" t="n"/>
+      <c r="A247" s="108" t="n"/>
     </row>
     <row r="248">
-      <c r="A248" s="110" t="n"/>
+      <c r="A248" s="108" t="n"/>
     </row>
     <row r="249">
-      <c r="A249" s="110" t="n"/>
+      <c r="A249" s="108" t="n"/>
     </row>
     <row r="250">
-      <c r="A250" s="110" t="n"/>
+      <c r="A250" s="108" t="n"/>
     </row>
     <row r="251">
-      <c r="A251" s="110" t="n"/>
+      <c r="A251" s="108" t="n"/>
     </row>
     <row r="252">
-      <c r="A252" s="110" t="n"/>
+      <c r="A252" s="108" t="n"/>
     </row>
     <row r="253">
-      <c r="A253" s="110" t="n"/>
+      <c r="A253" s="108" t="n"/>
     </row>
     <row r="254">
-      <c r="A254" s="110" t="n"/>
+      <c r="A254" s="108" t="n"/>
     </row>
     <row r="255">
-      <c r="A255" s="110" t="n"/>
+      <c r="A255" s="108" t="n"/>
     </row>
     <row r="256">
-      <c r="A256" s="110" t="n"/>
+      <c r="A256" s="108" t="n"/>
     </row>
     <row r="257">
-      <c r="A257" s="110" t="n"/>
+      <c r="A257" s="108" t="n"/>
     </row>
     <row r="258">
-      <c r="A258" s="110" t="n"/>
+      <c r="A258" s="108" t="n"/>
     </row>
     <row r="259">
-      <c r="A259" s="110" t="n"/>
+      <c r="A259" s="108" t="n"/>
     </row>
     <row r="260">
-      <c r="A260" s="110" t="n"/>
+      <c r="A260" s="108" t="n"/>
     </row>
     <row r="261">
-      <c r="A261" s="110" t="n"/>
+      <c r="A261" s="108" t="n"/>
     </row>
     <row r="262">
-      <c r="A262" s="110" t="n"/>
+      <c r="A262" s="108" t="n"/>
     </row>
     <row r="263">
-      <c r="A263" s="110" t="n"/>
+      <c r="A263" s="108" t="n"/>
     </row>
     <row r="264">
-      <c r="A264" s="110" t="n"/>
+      <c r="A264" s="108" t="n"/>
     </row>
     <row r="265">
-      <c r="A265" s="110" t="n"/>
+      <c r="A265" s="108" t="n"/>
     </row>
     <row r="266">
-      <c r="A266" s="110" t="n"/>
+      <c r="A266" s="108" t="n"/>
     </row>
     <row r="267">
-      <c r="A267" s="110" t="n"/>
+      <c r="A267" s="108" t="n"/>
     </row>
     <row r="268">
-      <c r="A268" s="110" t="n"/>
+      <c r="A268" s="108" t="n"/>
     </row>
     <row r="269">
-      <c r="A269" s="110" t="n"/>
+      <c r="A269" s="108" t="n"/>
     </row>
     <row r="270">
-      <c r="A270" s="110" t="n"/>
+      <c r="A270" s="108" t="n"/>
     </row>
     <row r="271">
-      <c r="A271" s="110" t="n"/>
+      <c r="A271" s="108" t="n"/>
     </row>
     <row r="272">
-      <c r="A272" s="110" t="n"/>
+      <c r="A272" s="108" t="n"/>
     </row>
     <row r="273">
-      <c r="A273" s="110" t="n"/>
+      <c r="A273" s="108" t="n"/>
     </row>
     <row r="274">
-      <c r="A274" s="110" t="n"/>
+      <c r="A274" s="108" t="n"/>
     </row>
     <row r="275">
-      <c r="A275" s="110" t="n"/>
+      <c r="A275" s="108" t="n"/>
     </row>
     <row r="276">
-      <c r="A276" s="110" t="n"/>
+      <c r="A276" s="108" t="n"/>
     </row>
     <row r="277">
-      <c r="A277" s="110" t="n"/>
+      <c r="A277" s="108" t="n"/>
     </row>
     <row r="278">
-      <c r="A278" s="110" t="n"/>
+      <c r="A278" s="108" t="n"/>
     </row>
     <row r="279">
-      <c r="A279" s="110" t="n"/>
+      <c r="A279" s="108" t="n"/>
     </row>
     <row r="280">
-      <c r="A280" s="110" t="n"/>
+      <c r="A280" s="108" t="n"/>
     </row>
     <row r="281">
-      <c r="A281" s="110" t="n"/>
+      <c r="A281" s="108" t="n"/>
     </row>
     <row r="282">
-      <c r="A282" s="110" t="n"/>
+      <c r="A282" s="108" t="n"/>
     </row>
     <row r="283">
-      <c r="A283" s="110" t="n"/>
+      <c r="A283" s="108" t="n"/>
     </row>
     <row r="284">
-      <c r="A284" s="110" t="n"/>
+      <c r="A284" s="108" t="n"/>
     </row>
     <row r="285">
-      <c r="A285" s="110" t="n"/>
+      <c r="A285" s="108" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5300,324 +5080,334 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="220" width="33.85546875"/>
-    <col customWidth="1" max="5" min="3" style="107" width="22.28515625"/>
-    <col customWidth="1" max="6" min="6" style="107" width="16.28515625"/>
+    <col customWidth="1" max="2" min="2" style="213" width="33.85546875"/>
+    <col customWidth="1" max="5" min="3" style="105" width="22.28515625"/>
+    <col customWidth="1" max="6" min="6" style="105" width="16.28515625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="24" r="1">
-      <c r="B1" s="218" t="inlineStr">
+      <c r="B1" s="211" t="inlineStr">
         <is>
           <t>Дата: Обязательно писать ноли!</t>
         </is>
       </c>
-      <c r="C1" s="61" t="inlineStr">
+      <c r="C1" s="59" t="inlineStr">
         <is>
           <t>Доллар</t>
         </is>
       </c>
-      <c r="D1" s="61" t="inlineStr">
+      <c r="D1" s="59" t="inlineStr">
         <is>
           <t>Доллар/Пред</t>
         </is>
       </c>
-      <c r="E1" s="61" t="inlineStr">
+      <c r="E1" s="59" t="inlineStr">
         <is>
           <t>Эвро</t>
         </is>
       </c>
-      <c r="F1" s="104" t="inlineStr">
+      <c r="F1" s="102" t="inlineStr">
         <is>
           <t>Эвро/Пред</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="24" r="2">
-      <c r="B2" s="219" t="inlineStr">
+      <c r="B2" s="212" t="inlineStr">
         <is>
           <t>2022-04-31</t>
         </is>
       </c>
-      <c r="C2" s="62" t="n">
+      <c r="C2" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="63" t="n">
+      <c r="D2" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="63" t="n">
+      <c r="E2" s="61" t="n">
         <v>11</v>
       </c>
-      <c r="F2" s="105" t="n">
+      <c r="F2" s="103" t="n">
         <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="3">
-      <c r="B3" s="219" t="inlineStr">
+      <c r="B3" s="212" t="inlineStr">
         <is>
           <t>2022-04-31</t>
         </is>
       </c>
-      <c r="C3" s="62" t="n">
+      <c r="C3" s="60" t="n">
         <v>28.35</v>
       </c>
-      <c r="D3" s="63" t="n">
+      <c r="D3" s="61" t="n">
         <v>28.75</v>
       </c>
-      <c r="E3" s="63" t="n">
+      <c r="E3" s="61" t="n">
         <v>34.4</v>
       </c>
-      <c r="F3" s="105" t="n">
+      <c r="F3" s="103" t="n">
         <v>34.8</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="4">
-      <c r="B4" s="219" t="n">
+      <c r="B4" s="212" t="n">
         <v>45051</v>
       </c>
-      <c r="C4" s="62" t="n">
+      <c r="C4" s="60" t="n">
         <v>28.45</v>
       </c>
-      <c r="D4" s="63" t="n">
+      <c r="D4" s="61" t="n">
         <v>28.85</v>
       </c>
-      <c r="E4" s="63" t="n">
+      <c r="E4" s="61" t="n">
         <v>34.35</v>
       </c>
-      <c r="F4" s="105" t="n">
+      <c r="F4" s="103" t="n">
         <v>34.75</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="5">
-      <c r="B5" s="219" t="n">
+      <c r="B5" s="212" t="n">
         <v>45068</v>
       </c>
-      <c r="C5" s="62" t="n">
+      <c r="C5" s="60" t="n">
         <v>37.3</v>
       </c>
-      <c r="D5" s="63" t="n">
+      <c r="D5" s="61" t="n">
         <v>39.9</v>
       </c>
-      <c r="E5" s="63" t="n">
+      <c r="E5" s="61" t="n">
         <v>40.35</v>
       </c>
-      <c r="F5" s="105" t="n">
+      <c r="F5" s="103" t="n">
         <v>40.95</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="6">
-      <c r="B6" s="219" t="n">
+      <c r="B6" s="212" t="n">
         <v>45071</v>
       </c>
-      <c r="C6" s="62" t="n">
+      <c r="C6" s="60" t="n">
         <v>37.3</v>
       </c>
-      <c r="D6" s="63" t="n">
+      <c r="D6" s="61" t="n">
         <v>39.9</v>
       </c>
-      <c r="E6" s="63" t="n">
+      <c r="E6" s="61" t="n">
         <v>40.05</v>
       </c>
-      <c r="F6" s="105" t="n">
+      <c r="F6" s="103" t="n">
         <v>40.65</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="7">
-      <c r="B7" s="219" t="n">
+      <c r="B7" s="212" t="n">
         <v>45078</v>
       </c>
-      <c r="C7" s="62" t="n">
+      <c r="C7" s="60" t="n">
         <v>37.3</v>
       </c>
-      <c r="D7" s="63" t="n">
+      <c r="D7" s="61" t="n">
         <v>39.9</v>
       </c>
-      <c r="E7" s="63" t="n">
+      <c r="E7" s="61" t="n">
         <v>40.05</v>
       </c>
-      <c r="F7" s="105" t="n">
+      <c r="F7" s="103" t="n">
         <v>40.65</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="8">
-      <c r="B8" s="217" t="n"/>
-      <c r="C8" s="64" t="n"/>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="64" t="n"/>
-      <c r="F8" s="106" t="n"/>
+      <c r="B8" s="212" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C8" s="60" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D8" s="61" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E8" s="61" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F8" s="103" t="n">
+        <v>40.8</v>
+      </c>
     </row>
     <row customHeight="1" ht="24" r="9">
-      <c r="B9" s="217" t="n"/>
-      <c r="C9" s="64" t="n"/>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="64" t="n"/>
-      <c r="F9" s="106" t="n"/>
+      <c r="B9" s="210" t="n"/>
+      <c r="C9" s="62" t="n"/>
+      <c r="D9" s="62" t="n"/>
+      <c r="E9" s="62" t="n"/>
+      <c r="F9" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="10">
-      <c r="B10" s="217" t="n"/>
-      <c r="C10" s="64" t="n"/>
-      <c r="D10" s="64" t="n"/>
-      <c r="E10" s="64" t="n"/>
-      <c r="F10" s="106" t="n"/>
+      <c r="B10" s="210" t="n"/>
+      <c r="C10" s="62" t="n"/>
+      <c r="D10" s="62" t="n"/>
+      <c r="E10" s="62" t="n"/>
+      <c r="F10" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="11">
-      <c r="B11" s="217" t="n"/>
-      <c r="C11" s="64" t="n"/>
-      <c r="D11" s="64" t="n"/>
-      <c r="E11" s="64" t="n"/>
-      <c r="F11" s="106" t="n"/>
+      <c r="B11" s="210" t="n"/>
+      <c r="C11" s="62" t="n"/>
+      <c r="D11" s="62" t="n"/>
+      <c r="E11" s="62" t="n"/>
+      <c r="F11" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="12">
-      <c r="B12" s="217" t="n"/>
-      <c r="C12" s="64" t="n"/>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="64" t="n"/>
-      <c r="F12" s="106" t="n"/>
+      <c r="B12" s="210" t="n"/>
+      <c r="C12" s="62" t="n"/>
+      <c r="D12" s="62" t="n"/>
+      <c r="E12" s="62" t="n"/>
+      <c r="F12" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="13">
-      <c r="B13" s="217" t="n"/>
-      <c r="C13" s="64" t="n"/>
-      <c r="D13" s="64" t="n"/>
-      <c r="E13" s="64" t="n"/>
-      <c r="F13" s="106" t="n"/>
+      <c r="B13" s="210" t="n"/>
+      <c r="C13" s="62" t="n"/>
+      <c r="D13" s="62" t="n"/>
+      <c r="E13" s="62" t="n"/>
+      <c r="F13" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="14">
-      <c r="B14" s="217" t="n"/>
-      <c r="C14" s="64" t="n"/>
-      <c r="D14" s="64" t="n"/>
-      <c r="E14" s="64" t="n"/>
-      <c r="F14" s="106" t="n"/>
+      <c r="B14" s="210" t="n"/>
+      <c r="C14" s="62" t="n"/>
+      <c r="D14" s="62" t="n"/>
+      <c r="E14" s="62" t="n"/>
+      <c r="F14" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="15">
-      <c r="B15" s="217" t="n"/>
-      <c r="C15" s="64" t="n"/>
-      <c r="D15" s="64" t="n"/>
-      <c r="E15" s="64" t="n"/>
-      <c r="F15" s="106" t="n"/>
+      <c r="B15" s="210" t="n"/>
+      <c r="C15" s="62" t="n"/>
+      <c r="D15" s="62" t="n"/>
+      <c r="E15" s="62" t="n"/>
+      <c r="F15" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16">
-      <c r="B16" s="217" t="n"/>
-      <c r="C16" s="64" t="n"/>
-      <c r="D16" s="64" t="n"/>
-      <c r="E16" s="64" t="n"/>
-      <c r="F16" s="106" t="n"/>
+      <c r="B16" s="210" t="n"/>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="62" t="n"/>
+      <c r="E16" s="62" t="n"/>
+      <c r="F16" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17">
-      <c r="B17" s="217" t="n"/>
-      <c r="C17" s="64" t="n"/>
-      <c r="D17" s="64" t="n"/>
-      <c r="E17" s="64" t="n"/>
-      <c r="F17" s="106" t="n"/>
+      <c r="B17" s="210" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="62" t="n"/>
+      <c r="E17" s="62" t="n"/>
+      <c r="F17" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18">
-      <c r="B18" s="217" t="n"/>
-      <c r="C18" s="64" t="n"/>
-      <c r="D18" s="64" t="n"/>
-      <c r="E18" s="64" t="n"/>
-      <c r="F18" s="106" t="n"/>
+      <c r="B18" s="210" t="n"/>
+      <c r="C18" s="62" t="n"/>
+      <c r="D18" s="62" t="n"/>
+      <c r="E18" s="62" t="n"/>
+      <c r="F18" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="19">
-      <c r="B19" s="217" t="n"/>
-      <c r="C19" s="64" t="n"/>
-      <c r="D19" s="64" t="n"/>
-      <c r="E19" s="64" t="n"/>
-      <c r="F19" s="106" t="n"/>
+      <c r="B19" s="210" t="n"/>
+      <c r="C19" s="62" t="n"/>
+      <c r="D19" s="62" t="n"/>
+      <c r="E19" s="62" t="n"/>
+      <c r="F19" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="20">
-      <c r="B20" s="217" t="n"/>
-      <c r="C20" s="64" t="n"/>
-      <c r="D20" s="64" t="n"/>
-      <c r="E20" s="64" t="n"/>
-      <c r="F20" s="106" t="n"/>
+      <c r="B20" s="210" t="n"/>
+      <c r="C20" s="62" t="n"/>
+      <c r="D20" s="62" t="n"/>
+      <c r="E20" s="62" t="n"/>
+      <c r="F20" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="21">
-      <c r="B21" s="217" t="n"/>
-      <c r="C21" s="64" t="n"/>
-      <c r="D21" s="64" t="n"/>
-      <c r="E21" s="64" t="n"/>
-      <c r="F21" s="106" t="n"/>
+      <c r="B21" s="210" t="n"/>
+      <c r="C21" s="62" t="n"/>
+      <c r="D21" s="62" t="n"/>
+      <c r="E21" s="62" t="n"/>
+      <c r="F21" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="22">
-      <c r="B22" s="217" t="n"/>
-      <c r="C22" s="64" t="n"/>
-      <c r="D22" s="64" t="n"/>
-      <c r="E22" s="64" t="n"/>
-      <c r="F22" s="106" t="n"/>
+      <c r="B22" s="210" t="n"/>
+      <c r="C22" s="62" t="n"/>
+      <c r="D22" s="62" t="n"/>
+      <c r="E22" s="62" t="n"/>
+      <c r="F22" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="23">
-      <c r="B23" s="217" t="n"/>
-      <c r="C23" s="64" t="n"/>
-      <c r="D23" s="64" t="n"/>
-      <c r="E23" s="64" t="n"/>
-      <c r="F23" s="106" t="n"/>
+      <c r="B23" s="210" t="n"/>
+      <c r="C23" s="62" t="n"/>
+      <c r="D23" s="62" t="n"/>
+      <c r="E23" s="62" t="n"/>
+      <c r="F23" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="24">
-      <c r="B24" s="217" t="n"/>
-      <c r="C24" s="64" t="n"/>
-      <c r="D24" s="64" t="n"/>
-      <c r="E24" s="64" t="n"/>
-      <c r="F24" s="106" t="n"/>
+      <c r="B24" s="210" t="n"/>
+      <c r="C24" s="62" t="n"/>
+      <c r="D24" s="62" t="n"/>
+      <c r="E24" s="62" t="n"/>
+      <c r="F24" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="25">
-      <c r="B25" s="217" t="n"/>
-      <c r="C25" s="64" t="n"/>
-      <c r="D25" s="64" t="n"/>
-      <c r="E25" s="64" t="n"/>
-      <c r="F25" s="106" t="n"/>
+      <c r="B25" s="210" t="n"/>
+      <c r="C25" s="62" t="n"/>
+      <c r="D25" s="62" t="n"/>
+      <c r="E25" s="62" t="n"/>
+      <c r="F25" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26">
-      <c r="B26" s="217" t="n"/>
-      <c r="C26" s="64" t="n"/>
-      <c r="D26" s="64" t="n"/>
-      <c r="E26" s="64" t="n"/>
-      <c r="F26" s="106" t="n"/>
+      <c r="B26" s="210" t="n"/>
+      <c r="C26" s="62" t="n"/>
+      <c r="D26" s="62" t="n"/>
+      <c r="E26" s="62" t="n"/>
+      <c r="F26" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="27">
-      <c r="B27" s="217" t="n"/>
-      <c r="C27" s="64" t="n"/>
-      <c r="D27" s="64" t="n"/>
-      <c r="E27" s="64" t="n"/>
-      <c r="F27" s="106" t="n"/>
+      <c r="B27" s="210" t="n"/>
+      <c r="C27" s="62" t="n"/>
+      <c r="D27" s="62" t="n"/>
+      <c r="E27" s="62" t="n"/>
+      <c r="F27" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28">
-      <c r="B28" s="217" t="n"/>
-      <c r="C28" s="64" t="n"/>
-      <c r="D28" s="64" t="n"/>
-      <c r="E28" s="64" t="n"/>
-      <c r="F28" s="106" t="n"/>
+      <c r="B28" s="210" t="n"/>
+      <c r="C28" s="62" t="n"/>
+      <c r="D28" s="62" t="n"/>
+      <c r="E28" s="62" t="n"/>
+      <c r="F28" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29">
-      <c r="B29" s="217" t="n"/>
-      <c r="C29" s="64" t="n"/>
-      <c r="D29" s="64" t="n"/>
-      <c r="E29" s="64" t="n"/>
-      <c r="F29" s="106" t="n"/>
+      <c r="B29" s="210" t="n"/>
+      <c r="C29" s="62" t="n"/>
+      <c r="D29" s="62" t="n"/>
+      <c r="E29" s="62" t="n"/>
+      <c r="F29" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30">
-      <c r="B30" s="217" t="n"/>
-      <c r="C30" s="64" t="n"/>
-      <c r="D30" s="64" t="n"/>
-      <c r="E30" s="64" t="n"/>
-      <c r="F30" s="106" t="n"/>
+      <c r="B30" s="210" t="n"/>
+      <c r="C30" s="62" t="n"/>
+      <c r="D30" s="62" t="n"/>
+      <c r="E30" s="62" t="n"/>
+      <c r="F30" s="104" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31">
-      <c r="C31" s="65" t="n"/>
-      <c r="D31" s="65" t="n"/>
-      <c r="E31" s="65" t="n"/>
+      <c r="C31" s="63" t="n"/>
+      <c r="D31" s="63" t="n"/>
+      <c r="E31" s="63" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32">
-      <c r="C32" s="65" t="n"/>
-      <c r="D32" s="65" t="n"/>
-      <c r="E32" s="65" t="n"/>
+      <c r="C32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="63" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33">
-      <c r="C33" s="65" t="n"/>
-      <c r="D33" s="65" t="n"/>
-      <c r="E33" s="65" t="n"/>
+      <c r="C33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="E33" s="63" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
